--- a/variants/m2/M2 Pin Mapping.xlsx
+++ b/variants/m2/M2 Pin Mapping.xlsx
@@ -13,9 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="M2 Pin Mapping" sheetId="1" r:id="rId1"/>
+    <sheet name="PIO A" sheetId="2" r:id="rId2"/>
+    <sheet name="PIO B" sheetId="3" r:id="rId3"/>
+    <sheet name="PIO C" sheetId="4" r:id="rId4"/>
+    <sheet name="PIO D" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'M2 Pin Mapping'!$B$1:$B$353</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'M2 Pin Mapping'!$A$1:$F$117</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="622">
   <si>
     <t>Feature</t>
   </si>
@@ -1236,6 +1241,663 @@
   </si>
   <si>
     <t>SD Card SPI</t>
+  </si>
+  <si>
+    <t>PCK0</t>
+  </si>
+  <si>
+    <t>TIOA1</t>
+  </si>
+  <si>
+    <t>NANDRDY</t>
+  </si>
+  <si>
+    <t>TIOB1</t>
+  </si>
+  <si>
+    <t>PWMFI1</t>
+  </si>
+  <si>
+    <t>TCLK1</t>
+  </si>
+  <si>
+    <t>NWAIT</t>
+  </si>
+  <si>
+    <t>TIOA2</t>
+  </si>
+  <si>
+    <t>PWMFI0</t>
+  </si>
+  <si>
+    <t>TIOB2</t>
+  </si>
+  <si>
+    <t>NCS0</t>
+  </si>
+  <si>
+    <t>TCLK2</t>
+  </si>
+  <si>
+    <t>NCS1</t>
+  </si>
+  <si>
+    <t>URXD</t>
+  </si>
+  <si>
+    <t>UTXD</t>
+  </si>
+  <si>
+    <t>RXD0</t>
+  </si>
+  <si>
+    <t>DATRG</t>
+  </si>
+  <si>
+    <t>TXD0</t>
+  </si>
+  <si>
+    <t>ADTRG</t>
+  </si>
+  <si>
+    <t>RXD1</t>
+  </si>
+  <si>
+    <t>TXD1</t>
+  </si>
+  <si>
+    <t>RTS1</t>
+  </si>
+  <si>
+    <t>TK</t>
+  </si>
+  <si>
+    <t>CTS1</t>
+  </si>
+  <si>
+    <t>TF</t>
+  </si>
+  <si>
+    <t>SPCK1</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>TWD0</t>
+  </si>
+  <si>
+    <t>SPCK0</t>
+  </si>
+  <si>
+    <t>TWCK0</t>
+  </si>
+  <si>
+    <t>A20</t>
+  </si>
+  <si>
+    <t>TCLK3</t>
+  </si>
+  <si>
+    <t>TCLK4</t>
+  </si>
+  <si>
+    <t>PCK1</t>
+  </si>
+  <si>
+    <t>A18</t>
+  </si>
+  <si>
+    <t>A19</t>
+  </si>
+  <si>
+    <t>SPI0_SPCK</t>
+  </si>
+  <si>
+    <t>SPI0_NPCS0</t>
+  </si>
+  <si>
+    <t>PCK2</t>
+  </si>
+  <si>
+    <t>SPI0_NPCS1</t>
+  </si>
+  <si>
+    <t>NRD</t>
+  </si>
+  <si>
+    <t>PA30</t>
+  </si>
+  <si>
+    <t>SPI0_NPCS2</t>
+  </si>
+  <si>
+    <t>PA31</t>
+  </si>
+  <si>
+    <t>SPI0_NPCS3</t>
+  </si>
+  <si>
+    <t>AD1/WKUP1</t>
+  </si>
+  <si>
+    <t>WKUP0</t>
+  </si>
+  <si>
+    <t>AD0</t>
+  </si>
+  <si>
+    <t>AD2</t>
+  </si>
+  <si>
+    <t>WKUP2</t>
+  </si>
+  <si>
+    <t>WKUP3</t>
+  </si>
+  <si>
+    <t>WKUP4</t>
+  </si>
+  <si>
+    <t>WKUP5</t>
+  </si>
+  <si>
+    <t>WKUP6</t>
+  </si>
+  <si>
+    <t>WKUP7</t>
+  </si>
+  <si>
+    <t>WKUP8</t>
+  </si>
+  <si>
+    <t>AD7</t>
+  </si>
+  <si>
+    <t>WKUP9</t>
+  </si>
+  <si>
+    <t>AD4</t>
+  </si>
+  <si>
+    <t>AD5</t>
+  </si>
+  <si>
+    <t>AD6</t>
+  </si>
+  <si>
+    <t>WKUP10</t>
+  </si>
+  <si>
+    <t>WKUP11</t>
+  </si>
+  <si>
+    <t>I/O Line</t>
+  </si>
+  <si>
+    <t>Peripheral A</t>
+  </si>
+  <si>
+    <t>Peripheral B</t>
+  </si>
+  <si>
+    <t>Extra Function</t>
+  </si>
+  <si>
+    <t>TWD1</t>
+  </si>
+  <si>
+    <t>TWCK1</t>
+  </si>
+  <si>
+    <t>TCLK5</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>RD</t>
+  </si>
+  <si>
+    <t>RK</t>
+  </si>
+  <si>
+    <t>TXD2</t>
+  </si>
+  <si>
+    <t>RXD2</t>
+  </si>
+  <si>
+    <t>RTS2</t>
+  </si>
+  <si>
+    <t>CTS2</t>
+  </si>
+  <si>
+    <t>SCK2</t>
+  </si>
+  <si>
+    <t>NCS2</t>
+  </si>
+  <si>
+    <t>RTS0</t>
+  </si>
+  <si>
+    <t>TIOA0</t>
+  </si>
+  <si>
+    <t>CTS0</t>
+  </si>
+  <si>
+    <t>TCLK0</t>
+  </si>
+  <si>
+    <t>NCS3</t>
+  </si>
+  <si>
+    <t>TIOB0</t>
+  </si>
+  <si>
+    <t>TCK/SWCLK</t>
+  </si>
+  <si>
+    <t>TDI</t>
+  </si>
+  <si>
+    <t>TDO/TRACESWO</t>
+  </si>
+  <si>
+    <t>TMS/SWDIO</t>
+  </si>
+  <si>
+    <t>2. SAM3A only</t>
+  </si>
+  <si>
+    <t>3. To select this extra function, refer to Section 43.5.3 “Analog Inputs”.</t>
+  </si>
+  <si>
+    <t>4. Analog input has priority over WKUPx pin.</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>6. WKUPx can be used if PIO controller defines the I/O line as "input".</t>
+  </si>
+  <si>
+    <t>5. DAC0 is selected when DACC_CHER.CH0 is set. DAC1 is selected when DACC_CHER.CH1 is set. See Section 44.7.3 “DACC Channel Enable Register”.</t>
+  </si>
+  <si>
+    <t>ETXCK/EREFCK</t>
+  </si>
+  <si>
+    <t>ETXEN</t>
+  </si>
+  <si>
+    <t>ETX0</t>
+  </si>
+  <si>
+    <t>ETX1</t>
+  </si>
+  <si>
+    <t>ECRSDV/ERXDV</t>
+  </si>
+  <si>
+    <t>ERX0</t>
+  </si>
+  <si>
+    <t>ERX1</t>
+  </si>
+  <si>
+    <t>ERXER</t>
+  </si>
+  <si>
+    <t>EMDC</t>
+  </si>
+  <si>
+    <t>EMDIO</t>
+  </si>
+  <si>
+    <t>TIOA3</t>
+  </si>
+  <si>
+    <t>TIOB3</t>
+  </si>
+  <si>
+    <t>TIOA4</t>
+  </si>
+  <si>
+    <t>TIOB4</t>
+  </si>
+  <si>
+    <t>TIOA5</t>
+  </si>
+  <si>
+    <t>TIOB5</t>
+  </si>
+  <si>
+    <t>PWML6</t>
+  </si>
+  <si>
+    <t>PWML7</t>
+  </si>
+  <si>
+    <t>AD8</t>
+  </si>
+  <si>
+    <t>AD9</t>
+  </si>
+  <si>
+    <t>DAC0/WKUP12</t>
+  </si>
+  <si>
+    <t>AD10</t>
+  </si>
+  <si>
+    <t>AD11</t>
+  </si>
+  <si>
+    <t>AD12</t>
+  </si>
+  <si>
+    <t>AD13</t>
+  </si>
+  <si>
+    <t>AD14/WKUP13</t>
+  </si>
+  <si>
+    <t>WKUP14</t>
+  </si>
+  <si>
+    <t>WKUP15</t>
+  </si>
+  <si>
+    <t>1. WKUPx can be used if PIO controller defines the I/O line as "input".</t>
+  </si>
+  <si>
+    <t>2. To select this extra function, refer to Section 43.5.3 “Analog Inputs”.</t>
+  </si>
+  <si>
+    <t>3. Analog input has priority over WKUPx pin.</t>
+  </si>
+  <si>
+    <t>1. SAM3X only</t>
+  </si>
+  <si>
+    <t>D0</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>ECRS</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>ERX2</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>ERX3</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>ECOL</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>ERXCK</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>ETX2</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>ETX3</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>ETXER</t>
+  </si>
+  <si>
+    <t>NWR0/NWE</t>
+  </si>
+  <si>
+    <t>PWMH6</t>
+  </si>
+  <si>
+    <t>NANDOE</t>
+  </si>
+  <si>
+    <t>NANDWE</t>
+  </si>
+  <si>
+    <t>A0/NBS0</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>TIOA6</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>TIOB6</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>TCLK6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>TIOA7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>TIOB7</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>TCLK7</t>
+  </si>
+  <si>
+    <t>1. To select this extra function, refer to Section 6.2 “System I/O Lines”.</t>
+  </si>
+  <si>
+    <t>ERASE</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>MCDA4</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>MCDA5</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>MCDA6</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>MCDA7</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>A16/BA0</t>
+  </si>
+  <si>
+    <t>PWMFI2</t>
+  </si>
+  <si>
+    <t>A17/BA1</t>
+  </si>
+  <si>
+    <t>TIOA8</t>
+  </si>
+  <si>
+    <t>A21/NANDALE</t>
+  </si>
+  <si>
+    <t>TIOB8</t>
+  </si>
+  <si>
+    <t>A22/NANDCLE</t>
+  </si>
+  <si>
+    <t>TCLK8</t>
+  </si>
+  <si>
+    <t>NWR1/NBS1</t>
+  </si>
+  <si>
+    <t>PD11</t>
+  </si>
+  <si>
+    <t>SDA10</t>
+  </si>
+  <si>
+    <t>PD12</t>
+  </si>
+  <si>
+    <t>SDCS</t>
+  </si>
+  <si>
+    <t>PD13</t>
+  </si>
+  <si>
+    <t>SDCKE</t>
+  </si>
+  <si>
+    <t>PD14</t>
+  </si>
+  <si>
+    <t>SDWE</t>
+  </si>
+  <si>
+    <t>PD15</t>
+  </si>
+  <si>
+    <t>RAS</t>
+  </si>
+  <si>
+    <t>PD16</t>
+  </si>
+  <si>
+    <t>CAS</t>
+  </si>
+  <si>
+    <t>PD17</t>
+  </si>
+  <si>
+    <t>PD18</t>
+  </si>
+  <si>
+    <t>PD19</t>
+  </si>
+  <si>
+    <t>PD20</t>
+  </si>
+  <si>
+    <t>PD21</t>
+  </si>
+  <si>
+    <t>PD22</t>
+  </si>
+  <si>
+    <t>PD23</t>
+  </si>
+  <si>
+    <t>PD24</t>
+  </si>
+  <si>
+    <t>PD25</t>
+  </si>
+  <si>
+    <t>PD26</t>
+  </si>
+  <si>
+    <t>PD27</t>
+  </si>
+  <si>
+    <t>PD28</t>
+  </si>
+  <si>
+    <t>PD29</t>
+  </si>
+  <si>
+    <t>PD30</t>
   </si>
 </sst>
 </file>
@@ -1506,7 +2168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1607,9 +2269,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1619,9 +2278,6 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1629,24 +2285,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1663,9 +2301,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1675,12 +2310,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1706,9 +2335,6 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1716,30 +2342,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1757,6 +2359,73 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2038,11 +2707,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AJ352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2080,22 +2752,22 @@
       </c>
     </row>
     <row r="2" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="41">
         <v>14</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="40" t="s">
         <v>278</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="41"/>
+      <c r="F2" s="39"/>
       <c r="G2" s="7">
         <v>32</v>
       </c>
@@ -2130,20 +2802,20 @@
       <c r="AJ2" s="22"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="43">
+      <c r="A3" s="74"/>
+      <c r="B3" s="41">
         <v>15</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="41"/>
+      <c r="F3" s="39"/>
       <c r="G3" s="7">
         <v>25</v>
       </c>
@@ -2178,20 +2850,20 @@
       <c r="AJ3" s="22"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="43">
+      <c r="A4" s="74"/>
+      <c r="B4" s="41">
         <v>16</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="41"/>
+      <c r="F4" s="39"/>
       <c r="G4" s="7">
         <v>15</v>
       </c>
@@ -2226,20 +2898,20 @@
       <c r="AJ4" s="22"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="43">
+      <c r="A5" s="74"/>
+      <c r="B5" s="41">
         <v>17</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="40" t="s">
         <v>281</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="41"/>
+      <c r="F5" s="39"/>
       <c r="G5" s="7">
         <v>8</v>
       </c>
@@ -2274,20 +2946,20 @@
       <c r="AJ5" s="22"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="43">
+      <c r="A6" s="74"/>
+      <c r="B6" s="41">
         <v>18</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="41"/>
+      <c r="F6" s="39"/>
       <c r="G6" s="7">
         <v>7</v>
       </c>
@@ -2322,20 +2994,20 @@
       <c r="AJ6" s="22"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="43">
+      <c r="A7" s="74"/>
+      <c r="B7" s="41">
         <v>19</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="40" t="s">
         <v>283</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="41"/>
+      <c r="F7" s="39"/>
       <c r="G7" s="7">
         <v>20</v>
       </c>
@@ -2370,20 +3042,20 @@
       <c r="AJ7" s="22"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="43">
+      <c r="A8" s="74"/>
+      <c r="B8" s="41">
         <v>20</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="40" t="s">
         <v>284</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="41"/>
+      <c r="F8" s="39"/>
       <c r="G8" s="7">
         <v>21</v>
       </c>
@@ -2418,20 +3090,20 @@
       <c r="AJ8" s="22"/>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
-      <c r="B9" s="43">
+      <c r="A9" s="75"/>
+      <c r="B9" s="41">
         <v>21</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="40" t="s">
         <v>285</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="41"/>
+      <c r="F9" s="39"/>
       <c r="G9" s="7">
         <v>136</v>
       </c>
@@ -2504,22 +3176,22 @@
       <c r="AJ10" s="23"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="76" t="s">
         <v>321</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="38">
         <v>22</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="37"/>
+      <c r="F11" s="36"/>
       <c r="G11" s="7">
         <v>138</v>
       </c>
@@ -2554,20 +3226,20 @@
       <c r="AJ11" s="22"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="39">
+      <c r="A12" s="76"/>
+      <c r="B12" s="38">
         <v>23</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="37" t="s">
         <v>287</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="37"/>
+      <c r="F12" s="36"/>
       <c r="G12" s="7">
         <v>121</v>
       </c>
@@ -2640,22 +3312,22 @@
       <c r="AJ13" s="23"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="73" t="s">
         <v>401</v>
       </c>
-      <c r="B14" s="43">
+      <c r="B14" s="41">
         <v>36</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="F14" s="39" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="7">
@@ -2692,20 +3364,20 @@
       <c r="AJ14" s="22"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="43">
+      <c r="A15" s="74"/>
+      <c r="B15" s="41">
         <v>37</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="41"/>
+      <c r="F15" s="39"/>
       <c r="G15" s="7">
         <v>71</v>
       </c>
@@ -2740,20 +3412,20 @@
       <c r="AJ15" s="22"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="43">
+      <c r="A16" s="74"/>
+      <c r="B16" s="41">
         <v>38</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="41"/>
+      <c r="F16" s="39"/>
       <c r="G16" s="7">
         <v>72</v>
       </c>
@@ -2788,20 +3460,20 @@
       <c r="AJ16" s="22"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="43">
+      <c r="A17" s="74"/>
+      <c r="B17" s="41">
         <v>39</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="41"/>
+      <c r="F17" s="39"/>
       <c r="G17" s="7">
         <v>107</v>
       </c>
@@ -2836,20 +3508,20 @@
       <c r="AJ17" s="22"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="43">
+      <c r="A18" s="74"/>
+      <c r="B18" s="41">
         <v>40</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="41"/>
+      <c r="F18" s="39"/>
       <c r="G18" s="7">
         <v>81</v>
       </c>
@@ -2884,20 +3556,20 @@
       <c r="AJ18" s="22"/>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="43">
+      <c r="A19" s="74"/>
+      <c r="B19" s="41">
         <v>41</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="41"/>
+      <c r="F19" s="39"/>
       <c r="G19" s="7">
         <v>80</v>
       </c>
@@ -2932,20 +3604,20 @@
       <c r="AJ19" s="22"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
-      <c r="B20" s="43">
+      <c r="A20" s="75"/>
+      <c r="B20" s="41">
         <v>42</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="41"/>
+      <c r="F20" s="39"/>
       <c r="G20" s="7">
         <v>79</v>
       </c>
@@ -3018,28 +3690,28 @@
       <c r="AJ21" s="23"/>
     </row>
     <row r="22" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="73" t="s">
         <v>402</v>
       </c>
-      <c r="B22" s="43">
+      <c r="B22" s="41">
         <f>B101</f>
         <v>46</v>
       </c>
-      <c r="C22" s="43" t="str">
+      <c r="C22" s="41" t="str">
         <f>C101</f>
         <v>SPI0_CS1</v>
       </c>
-      <c r="D22" s="43" t="str">
+      <c r="D22" s="41" t="str">
         <f>D101</f>
         <v>PA29</v>
       </c>
-      <c r="E22" s="43" t="str">
+      <c r="E22" s="41" t="str">
         <f>E101</f>
         <v>SPI0_nCS1</v>
       </c>
-      <c r="F22" s="43"/>
-      <c r="G22" s="88">
-        <f t="shared" ref="F22:G22" si="0">G101</f>
+      <c r="F22" s="41"/>
+      <c r="G22" s="68">
+        <f t="shared" ref="G22" si="0">G101</f>
         <v>112</v>
       </c>
       <c r="H22" s="23"/>
@@ -3073,26 +3745,26 @@
       <c r="AJ22" s="23"/>
     </row>
     <row r="23" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
-      <c r="B23" s="43">
-        <f>B99</f>
+      <c r="A23" s="74"/>
+      <c r="B23" s="41">
+        <f t="shared" ref="B23:E24" si="1">B99</f>
         <v>44</v>
       </c>
-      <c r="C23" s="43" t="str">
-        <f>C99</f>
+      <c r="C23" s="41" t="str">
+        <f t="shared" si="1"/>
         <v>SPI0_MOSI</v>
       </c>
-      <c r="D23" s="43" t="str">
-        <f>D99</f>
+      <c r="D23" s="41" t="str">
+        <f t="shared" si="1"/>
         <v>PA26</v>
       </c>
-      <c r="E23" s="43" t="str">
-        <f>E99</f>
+      <c r="E23" s="41" t="str">
+        <f t="shared" si="1"/>
         <v>SPI0 MOSI</v>
       </c>
-      <c r="F23" s="43"/>
-      <c r="G23" s="88">
-        <f t="shared" ref="F23:G23" si="1">G99</f>
+      <c r="F23" s="41"/>
+      <c r="G23" s="68">
+        <f t="shared" ref="G23" si="2">G99</f>
         <v>109</v>
       </c>
       <c r="H23" s="23"/>
@@ -3126,26 +3798,26 @@
       <c r="AJ23" s="23"/>
     </row>
     <row r="24" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="43">
-        <f>B100</f>
+      <c r="A24" s="74"/>
+      <c r="B24" s="41">
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="C24" s="43" t="str">
-        <f>C100</f>
+      <c r="C24" s="41" t="str">
+        <f t="shared" si="1"/>
         <v>SPI0_CLK</v>
       </c>
-      <c r="D24" s="43" t="str">
-        <f>D100</f>
+      <c r="D24" s="41" t="str">
+        <f t="shared" si="1"/>
         <v>PA27</v>
       </c>
-      <c r="E24" s="43" t="str">
-        <f>E100</f>
+      <c r="E24" s="41" t="str">
+        <f t="shared" si="1"/>
         <v>SPI0 CLK</v>
       </c>
-      <c r="F24" s="43"/>
-      <c r="G24" s="88">
-        <f t="shared" ref="F24:G24" si="2">G100</f>
+      <c r="F24" s="41"/>
+      <c r="G24" s="68">
+        <f t="shared" ref="G24" si="3">G100</f>
         <v>110</v>
       </c>
       <c r="H24" s="23"/>
@@ -3179,26 +3851,26 @@
       <c r="AJ24" s="23"/>
     </row>
     <row r="25" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
-      <c r="B25" s="43">
+      <c r="A25" s="75"/>
+      <c r="B25" s="41">
         <f>B98</f>
         <v>43</v>
       </c>
-      <c r="C25" s="43" t="str">
+      <c r="C25" s="41" t="str">
         <f>C98</f>
         <v>SPI0_MISO</v>
       </c>
-      <c r="D25" s="43" t="str">
+      <c r="D25" s="41" t="str">
         <f>D98</f>
         <v>PA25</v>
       </c>
-      <c r="E25" s="43" t="str">
+      <c r="E25" s="41" t="str">
         <f>E98</f>
         <v>SPI0 MISO</v>
       </c>
-      <c r="F25" s="43"/>
-      <c r="G25" s="88">
-        <f t="shared" ref="F25:G25" si="3">G98</f>
+      <c r="F25" s="41"/>
+      <c r="G25" s="68">
+        <f t="shared" ref="G25" si="4">G98</f>
         <v>108</v>
       </c>
       <c r="H25" s="23"/>
@@ -3270,22 +3942,22 @@
       <c r="AJ26" s="23"/>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="39">
+      <c r="B27" s="38">
         <v>24</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="37" t="s">
         <v>322</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="37" t="s">
         <v>377</v>
       </c>
-      <c r="E27" s="37" t="s">
+      <c r="E27" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="37" t="s">
+      <c r="F27" s="36" t="s">
         <v>378</v>
       </c>
       <c r="G27" s="7">
@@ -3322,20 +3994,20 @@
       <c r="AJ27" s="22"/>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
-      <c r="B28" s="39">
+      <c r="A28" s="71"/>
+      <c r="B28" s="38">
         <v>25</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="37" t="s">
         <v>323</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="D28" s="37" t="s">
         <v>379</v>
       </c>
-      <c r="E28" s="37" t="s">
+      <c r="E28" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="37" t="s">
+      <c r="F28" s="36" t="s">
         <v>380</v>
       </c>
       <c r="G28" s="7">
@@ -3372,20 +4044,20 @@
       <c r="AJ28" s="22"/>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
-      <c r="B29" s="39">
+      <c r="A29" s="71"/>
+      <c r="B29" s="38">
         <v>26</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="37" t="s">
         <v>324</v>
       </c>
-      <c r="D29" s="38" t="s">
+      <c r="D29" s="37" t="s">
         <v>381</v>
       </c>
-      <c r="E29" s="37" t="s">
+      <c r="E29" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="37" t="s">
+      <c r="F29" s="36" t="s">
         <v>382</v>
       </c>
       <c r="G29" s="7">
@@ -3422,20 +4094,20 @@
       <c r="AJ29" s="22"/>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
-      <c r="B30" s="39">
+      <c r="A30" s="71"/>
+      <c r="B30" s="38">
         <v>27</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="37" t="s">
         <v>325</v>
       </c>
-      <c r="D30" s="38" t="s">
+      <c r="D30" s="37" t="s">
         <v>383</v>
       </c>
-      <c r="E30" s="37" t="s">
+      <c r="E30" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="37" t="s">
+      <c r="F30" s="36" t="s">
         <v>384</v>
       </c>
       <c r="G30" s="7">
@@ -3472,20 +4144,20 @@
       <c r="AJ30" s="22"/>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
-      <c r="B31" s="39">
+      <c r="A31" s="71"/>
+      <c r="B31" s="38">
         <v>28</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="37" t="s">
         <v>326</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="37" t="s">
         <v>385</v>
       </c>
-      <c r="E31" s="37" t="s">
+      <c r="E31" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="F31" s="37" t="s">
+      <c r="F31" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G31" s="7">
@@ -3522,20 +4194,20 @@
       <c r="AJ31" s="22"/>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
-      <c r="B32" s="39">
+      <c r="A32" s="71"/>
+      <c r="B32" s="38">
         <v>29</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="37" t="s">
         <v>327</v>
       </c>
-      <c r="D32" s="38" t="s">
+      <c r="D32" s="37" t="s">
         <v>387</v>
       </c>
-      <c r="E32" s="37" t="s">
+      <c r="E32" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="F32" s="37" t="s">
+      <c r="F32" s="36" t="s">
         <v>388</v>
       </c>
       <c r="G32" s="7">
@@ -3572,20 +4244,20 @@
       <c r="AJ32" s="22"/>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
-      <c r="B33" s="39">
+      <c r="A33" s="71"/>
+      <c r="B33" s="38">
         <v>30</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="37" t="s">
         <v>328</v>
       </c>
-      <c r="D33" s="38" t="s">
+      <c r="D33" s="37" t="s">
         <v>389</v>
       </c>
-      <c r="E33" s="37" t="s">
+      <c r="E33" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="37" t="s">
+      <c r="F33" s="36" t="s">
         <v>390</v>
       </c>
       <c r="G33" s="7">
@@ -3622,20 +4294,20 @@
       <c r="AJ33" s="22"/>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
-      <c r="B34" s="39">
+      <c r="A34" s="71"/>
+      <c r="B34" s="38">
         <v>31</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="37" t="s">
         <v>329</v>
       </c>
-      <c r="D34" s="38" t="s">
+      <c r="D34" s="37" t="s">
         <v>391</v>
       </c>
-      <c r="E34" s="37" t="s">
+      <c r="E34" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="F34" s="37" t="s">
+      <c r="F34" s="36" t="s">
         <v>392</v>
       </c>
       <c r="G34" s="7">
@@ -3672,20 +4344,20 @@
       <c r="AJ34" s="22"/>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
-      <c r="B35" s="39">
+      <c r="A35" s="71"/>
+      <c r="B35" s="38">
         <v>32</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="37" t="s">
         <v>330</v>
       </c>
-      <c r="D35" s="38" t="s">
+      <c r="D35" s="37" t="s">
         <v>393</v>
       </c>
-      <c r="E35" s="37" t="s">
+      <c r="E35" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="F35" s="37" t="s">
+      <c r="F35" s="36" t="s">
         <v>394</v>
       </c>
       <c r="G35" s="7">
@@ -3722,20 +4394,20 @@
       <c r="AJ35" s="22"/>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
-      <c r="B36" s="39">
+      <c r="A36" s="71"/>
+      <c r="B36" s="38">
         <v>33</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="37" t="s">
         <v>331</v>
       </c>
-      <c r="D36" s="38" t="s">
+      <c r="D36" s="37" t="s">
         <v>395</v>
       </c>
-      <c r="E36" s="37" t="s">
+      <c r="E36" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="F36" s="37" t="s">
+      <c r="F36" s="36" t="s">
         <v>396</v>
       </c>
       <c r="G36" s="7">
@@ -3772,20 +4444,20 @@
       <c r="AJ36" s="22"/>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A37" s="48"/>
-      <c r="B37" s="39">
+      <c r="A37" s="71"/>
+      <c r="B37" s="38">
         <v>34</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C37" s="37" t="s">
         <v>332</v>
       </c>
-      <c r="D37" s="38" t="s">
+      <c r="D37" s="37" t="s">
         <v>397</v>
       </c>
-      <c r="E37" s="37" t="s">
+      <c r="E37" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="37" t="s">
+      <c r="F37" s="36" t="s">
         <v>398</v>
       </c>
       <c r="G37" s="7">
@@ -3822,20 +4494,20 @@
       <c r="AJ37" s="22"/>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="39">
+      <c r="A38" s="72"/>
+      <c r="B38" s="38">
         <v>35</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="37" t="s">
         <v>333</v>
       </c>
-      <c r="D38" s="38" t="s">
+      <c r="D38" s="37" t="s">
         <v>399</v>
       </c>
-      <c r="E38" s="37" t="s">
+      <c r="E38" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="F38" s="37" t="s">
+      <c r="F38" s="36" t="s">
         <v>400</v>
       </c>
       <c r="G38" s="7">
@@ -3910,22 +4582,22 @@
       <c r="AJ39" s="23"/>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="73" t="s">
         <v>336</v>
       </c>
-      <c r="B40" s="43">
+      <c r="B40" s="41">
         <v>86</v>
       </c>
-      <c r="C40" s="42" t="s">
+      <c r="C40" s="40" t="s">
         <v>367</v>
       </c>
-      <c r="D40" s="42" t="s">
+      <c r="D40" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="41" t="s">
+      <c r="E40" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="F40" s="41"/>
+      <c r="F40" s="39"/>
       <c r="G40" s="7">
         <v>90</v>
       </c>
@@ -3960,20 +4632,20 @@
       <c r="AJ40" s="22"/>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
-      <c r="B41" s="43">
+      <c r="A41" s="74"/>
+      <c r="B41" s="41">
         <v>87</v>
       </c>
-      <c r="C41" s="42" t="s">
+      <c r="C41" s="40" t="s">
         <v>368</v>
       </c>
-      <c r="D41" s="42" t="s">
+      <c r="D41" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E41" s="41" t="s">
+      <c r="E41" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="F41" s="41"/>
+      <c r="F41" s="39"/>
       <c r="G41" s="7">
         <v>89</v>
       </c>
@@ -4008,20 +4680,20 @@
       <c r="AJ41" s="22"/>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
-      <c r="B42" s="43">
+      <c r="A42" s="74"/>
+      <c r="B42" s="41">
         <v>88</v>
       </c>
-      <c r="C42" s="42" t="s">
+      <c r="C42" s="40" t="s">
         <v>369</v>
       </c>
-      <c r="D42" s="42" t="s">
+      <c r="D42" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="41" t="s">
+      <c r="E42" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F42" s="41"/>
+      <c r="F42" s="39"/>
       <c r="G42" s="7">
         <v>85</v>
       </c>
@@ -4056,20 +4728,20 @@
       <c r="AJ42" s="22"/>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
-      <c r="B43" s="43">
+      <c r="A43" s="74"/>
+      <c r="B43" s="41">
         <v>89</v>
       </c>
-      <c r="C43" s="42" t="s">
+      <c r="C43" s="40" t="s">
         <v>370</v>
       </c>
-      <c r="D43" s="42" t="s">
+      <c r="D43" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E43" s="41" t="s">
+      <c r="E43" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="F43" s="41"/>
+      <c r="F43" s="39"/>
       <c r="G43" s="7">
         <v>83</v>
       </c>
@@ -4104,20 +4776,20 @@
       <c r="AJ43" s="22"/>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A44" s="45"/>
-      <c r="B44" s="43">
+      <c r="A44" s="74"/>
+      <c r="B44" s="41">
         <v>90</v>
       </c>
-      <c r="C44" s="42" t="s">
+      <c r="C44" s="40" t="s">
         <v>371</v>
       </c>
-      <c r="D44" s="42" t="s">
+      <c r="D44" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="41" t="s">
+      <c r="E44" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="F44" s="41"/>
+      <c r="F44" s="39"/>
       <c r="G44" s="7">
         <v>84</v>
       </c>
@@ -4152,20 +4824,20 @@
       <c r="AJ44" s="22"/>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A45" s="46"/>
-      <c r="B45" s="43">
+      <c r="A45" s="75"/>
+      <c r="B45" s="41">
         <v>91</v>
       </c>
-      <c r="C45" s="42" t="s">
+      <c r="C45" s="40" t="s">
         <v>372</v>
       </c>
-      <c r="D45" s="42" t="s">
+      <c r="D45" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="E45" s="41" t="s">
+      <c r="E45" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="F45" s="41"/>
+      <c r="F45" s="39"/>
       <c r="G45" s="7">
         <v>78</v>
       </c>
@@ -4238,22 +4910,22 @@
       <c r="AJ46" s="22"/>
     </row>
     <row r="47" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="36" t="s">
+      <c r="A47" s="76" t="s">
         <v>335</v>
       </c>
-      <c r="B47" s="39">
+      <c r="B47" s="38">
         <v>75</v>
       </c>
-      <c r="C47" s="38" t="s">
+      <c r="C47" s="37" t="s">
         <v>351</v>
       </c>
-      <c r="D47" s="38" t="s">
+      <c r="D47" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="E47" s="37" t="s">
+      <c r="E47" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F47" s="37"/>
+      <c r="F47" s="36"/>
       <c r="G47" s="7">
         <v>135</v>
       </c>
@@ -4288,20 +4960,20 @@
       <c r="AJ47" s="22"/>
     </row>
     <row r="48" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
-      <c r="B48" s="39">
+      <c r="A48" s="76"/>
+      <c r="B48" s="38">
         <v>93</v>
       </c>
-      <c r="C48" s="38" t="s">
+      <c r="C48" s="37" t="s">
         <v>352</v>
       </c>
-      <c r="D48" s="38" t="s">
+      <c r="D48" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="E48" s="37" t="s">
+      <c r="E48" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="F48" s="37" t="s">
+      <c r="F48" s="36" t="s">
         <v>363</v>
       </c>
       <c r="G48" s="7">
@@ -4338,20 +5010,20 @@
       <c r="AJ48" s="22"/>
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A49" s="36"/>
-      <c r="B49" s="39">
+      <c r="A49" s="76"/>
+      <c r="B49" s="38">
         <v>76</v>
       </c>
-      <c r="C49" s="38" t="s">
+      <c r="C49" s="37" t="s">
         <v>353</v>
       </c>
-      <c r="D49" s="38" t="s">
+      <c r="D49" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E49" s="37" t="s">
+      <c r="E49" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="F49" s="37"/>
+      <c r="F49" s="36"/>
       <c r="G49" s="7">
         <v>14</v>
       </c>
@@ -4386,20 +5058,20 @@
       <c r="AJ49" s="22"/>
     </row>
     <row r="50" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
-      <c r="B50" s="39">
+      <c r="A50" s="76"/>
+      <c r="B50" s="38">
         <v>95</v>
       </c>
-      <c r="C50" s="38" t="s">
+      <c r="C50" s="37" t="s">
         <v>354</v>
       </c>
-      <c r="D50" s="38" t="s">
+      <c r="D50" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="E50" s="37" t="s">
+      <c r="E50" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="F50" s="37" t="s">
+      <c r="F50" s="36" t="s">
         <v>364</v>
       </c>
       <c r="G50" s="7">
@@ -4474,22 +5146,22 @@
       <c r="AJ51" s="23"/>
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A52" s="44" t="s">
+      <c r="A52" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="B52" s="43">
+      <c r="B52" s="41">
         <v>69</v>
       </c>
-      <c r="C52" s="42" t="s">
+      <c r="C52" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="D52" s="42" t="s">
+      <c r="D52" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="E52" s="41" t="s">
+      <c r="E52" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="F52" s="41"/>
+      <c r="F52" s="39"/>
       <c r="G52" s="7">
         <v>24</v>
       </c>
@@ -4524,20 +5196,20 @@
       <c r="AJ52" s="22"/>
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A53" s="45"/>
-      <c r="B53" s="43">
+      <c r="A53" s="74"/>
+      <c r="B53" s="41">
         <v>70</v>
       </c>
-      <c r="C53" s="42" t="s">
+      <c r="C53" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="D53" s="42" t="s">
+      <c r="D53" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="E53" s="41" t="s">
+      <c r="E53" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="F53" s="41"/>
+      <c r="F53" s="39"/>
       <c r="G53" s="7">
         <v>23</v>
       </c>
@@ -4572,20 +5244,20 @@
       <c r="AJ53" s="22"/>
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A54" s="45"/>
-      <c r="B54" s="43">
+      <c r="A54" s="74"/>
+      <c r="B54" s="41">
         <v>71</v>
       </c>
-      <c r="C54" s="42" t="s">
+      <c r="C54" s="40" t="s">
         <v>349</v>
       </c>
-      <c r="D54" s="42" t="s">
+      <c r="D54" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="E54" s="41" t="s">
+      <c r="E54" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="F54" s="41"/>
+      <c r="F54" s="39"/>
       <c r="G54" s="7">
         <v>16</v>
       </c>
@@ -4620,20 +5292,20 @@
       <c r="AJ54" s="22"/>
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A55" s="45"/>
-      <c r="B55" s="43">
+      <c r="A55" s="74"/>
+      <c r="B55" s="41">
         <v>72</v>
       </c>
-      <c r="C55" s="42" t="s">
+      <c r="C55" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="D55" s="42" t="s">
+      <c r="D55" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="E55" s="41" t="s">
+      <c r="E55" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="F55" s="41"/>
+      <c r="F55" s="39"/>
       <c r="G55" s="7">
         <v>76</v>
       </c>
@@ -4668,20 +5340,20 @@
       <c r="AJ55" s="22"/>
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A56" s="45"/>
-      <c r="B56" s="43">
+      <c r="A56" s="74"/>
+      <c r="B56" s="41">
         <v>73</v>
       </c>
-      <c r="C56" s="42" t="s">
+      <c r="C56" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="D56" s="42" t="s">
+      <c r="D56" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="E56" s="41" t="s">
+      <c r="E56" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="F56" s="41"/>
+      <c r="F56" s="39"/>
       <c r="G56" s="7">
         <v>140</v>
       </c>
@@ -4716,20 +5388,20 @@
       <c r="AJ56" s="22"/>
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A57" s="46"/>
-      <c r="B57" s="43">
+      <c r="A57" s="75"/>
+      <c r="B57" s="41">
         <v>25</v>
       </c>
-      <c r="C57" s="42" t="s">
+      <c r="C57" s="40" t="s">
         <v>350</v>
       </c>
-      <c r="D57" s="42" t="s">
+      <c r="D57" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="E57" s="41" t="s">
+      <c r="E57" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="F57" s="41"/>
+      <c r="F57" s="39"/>
       <c r="G57" s="7">
         <v>13</v>
       </c>
@@ -4802,22 +5474,22 @@
       <c r="AJ58" s="22"/>
     </row>
     <row r="59" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="47" t="s">
+      <c r="A59" s="70" t="s">
         <v>343</v>
       </c>
-      <c r="B59" s="39">
+      <c r="B59" s="38">
         <v>48</v>
       </c>
-      <c r="C59" s="38" t="s">
+      <c r="C59" s="37" t="s">
         <v>344</v>
       </c>
-      <c r="D59" s="38" t="s">
+      <c r="D59" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="E59" s="37" t="s">
+      <c r="E59" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="F59" s="37"/>
+      <c r="F59" s="36"/>
       <c r="G59" s="7">
         <v>117</v>
       </c>
@@ -4852,20 +5524,20 @@
       <c r="AJ59" s="22"/>
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A60" s="49"/>
-      <c r="B60" s="39">
+      <c r="A60" s="72"/>
+      <c r="B60" s="38">
         <v>49</v>
       </c>
-      <c r="C60" s="38" t="s">
+      <c r="C60" s="37" t="s">
         <v>345</v>
       </c>
-      <c r="D60" s="38" t="s">
+      <c r="D60" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="E60" s="37" t="s">
+      <c r="E60" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="F60" s="37" t="s">
+      <c r="F60" s="36" t="s">
         <v>101</v>
       </c>
       <c r="G60" s="7">
@@ -4902,22 +5574,22 @@
       <c r="AJ60" s="22"/>
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A61" s="47" t="s">
+      <c r="A61" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="B61" s="39">
+      <c r="B61" s="38">
         <v>50</v>
       </c>
-      <c r="C61" s="38" t="s">
+      <c r="C61" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="D61" s="38" t="s">
+      <c r="D61" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="E61" s="37" t="s">
+      <c r="E61" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="F61" s="37"/>
+      <c r="F61" s="36"/>
       <c r="G61" s="7">
         <v>123</v>
       </c>
@@ -4952,20 +5624,20 @@
       <c r="AJ61" s="22"/>
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A62" s="48"/>
-      <c r="B62" s="39">
+      <c r="A62" s="71"/>
+      <c r="B62" s="38">
         <v>51</v>
       </c>
-      <c r="C62" s="38" t="s">
+      <c r="C62" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="38" t="s">
+      <c r="D62" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="E62" s="37" t="s">
+      <c r="E62" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="F62" s="37"/>
+      <c r="F62" s="36"/>
       <c r="G62" s="7">
         <v>139</v>
       </c>
@@ -5000,20 +5672,20 @@
       <c r="AJ62" s="22"/>
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A63" s="48"/>
-      <c r="B63" s="39">
+      <c r="A63" s="71"/>
+      <c r="B63" s="38">
         <v>52</v>
       </c>
-      <c r="C63" s="38" t="s">
+      <c r="C63" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D63" s="38" t="s">
+      <c r="D63" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="E63" s="37" t="s">
+      <c r="E63" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="F63" s="37"/>
+      <c r="F63" s="36"/>
       <c r="G63" s="7">
         <v>137</v>
       </c>
@@ -5048,20 +5720,20 @@
       <c r="AJ63" s="22"/>
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A64" s="48"/>
-      <c r="B64" s="39">
+      <c r="A64" s="71"/>
+      <c r="B64" s="38">
         <v>53</v>
       </c>
-      <c r="C64" s="38" t="s">
+      <c r="C64" s="37" t="s">
         <v>347</v>
       </c>
-      <c r="D64" s="38" t="s">
+      <c r="D64" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="E64" s="37" t="s">
+      <c r="E64" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="F64" s="37"/>
+      <c r="F64" s="36"/>
       <c r="G64" s="7">
         <v>100</v>
       </c>
@@ -5096,20 +5768,20 @@
       <c r="AJ64" s="22"/>
     </row>
     <row r="65" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A65" s="49"/>
-      <c r="B65" s="39">
+      <c r="A65" s="72"/>
+      <c r="B65" s="38">
         <v>54</v>
       </c>
-      <c r="C65" s="38" t="s">
+      <c r="C65" s="37" t="s">
         <v>348</v>
       </c>
-      <c r="D65" s="38" t="s">
+      <c r="D65" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="E65" s="37" t="s">
+      <c r="E65" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="F65" s="37"/>
+      <c r="F65" s="36"/>
       <c r="G65" s="7">
         <v>134</v>
       </c>
@@ -5182,22 +5854,22 @@
       <c r="AJ66" s="22"/>
     </row>
     <row r="67" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A67" s="47" t="s">
+      <c r="A67" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="B67" s="39">
+      <c r="B67" s="38">
         <v>0</v>
       </c>
-      <c r="C67" s="38" t="s">
+      <c r="C67" s="37" t="s">
         <v>293</v>
       </c>
-      <c r="D67" s="38" t="s">
+      <c r="D67" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="E67" s="37" t="s">
+      <c r="E67" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="F67" s="37" t="s">
+      <c r="F67" s="36" t="s">
         <v>174</v>
       </c>
       <c r="G67" s="7">
@@ -5234,20 +5906,20 @@
       <c r="AJ67" s="22"/>
     </row>
     <row r="68" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A68" s="48"/>
-      <c r="B68" s="39">
+      <c r="A68" s="71"/>
+      <c r="B68" s="38">
         <v>1</v>
       </c>
-      <c r="C68" s="38" t="s">
+      <c r="C68" s="37" t="s">
         <v>294</v>
       </c>
-      <c r="D68" s="38" t="s">
+      <c r="D68" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="E68" s="37" t="s">
+      <c r="E68" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="F68" s="37" t="s">
+      <c r="F68" s="36" t="s">
         <v>175</v>
       </c>
       <c r="G68" s="7">
@@ -5284,20 +5956,20 @@
       <c r="AJ68" s="22"/>
     </row>
     <row r="69" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A69" s="48"/>
-      <c r="B69" s="39">
+      <c r="A69" s="71"/>
+      <c r="B69" s="38">
         <v>4</v>
       </c>
-      <c r="C69" s="38" t="s">
+      <c r="C69" s="37" t="s">
         <v>295</v>
       </c>
-      <c r="D69" s="38" t="s">
+      <c r="D69" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="E69" s="37" t="s">
+      <c r="E69" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="F69" s="37"/>
+      <c r="F69" s="36"/>
       <c r="G69" s="7">
         <v>93</v>
       </c>
@@ -5332,20 +6004,20 @@
       <c r="AJ69" s="22"/>
     </row>
     <row r="70" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A70" s="48"/>
-      <c r="B70" s="39">
+      <c r="A70" s="71"/>
+      <c r="B70" s="38">
         <v>7</v>
       </c>
-      <c r="C70" s="38" t="s">
+      <c r="C70" s="37" t="s">
         <v>296</v>
       </c>
-      <c r="D70" s="38" t="s">
+      <c r="D70" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="E70" s="37" t="s">
+      <c r="E70" s="36" t="s">
         <v>265</v>
       </c>
-      <c r="F70" s="37"/>
+      <c r="F70" s="36"/>
       <c r="G70" s="7">
         <v>118</v>
       </c>
@@ -5380,20 +6052,20 @@
       <c r="AJ70" s="22"/>
     </row>
     <row r="71" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A71" s="48"/>
-      <c r="B71" s="39">
+      <c r="A71" s="71"/>
+      <c r="B71" s="38">
         <v>11</v>
       </c>
-      <c r="C71" s="38" t="s">
+      <c r="C71" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="D71" s="38" t="s">
+      <c r="D71" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="E71" s="37" t="s">
+      <c r="E71" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="F71" s="37"/>
+      <c r="F71" s="36"/>
       <c r="G71" s="7">
         <v>19</v>
       </c>
@@ -5428,20 +6100,20 @@
       <c r="AJ71" s="22"/>
     </row>
     <row r="72" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A72" s="48"/>
-      <c r="B72" s="39">
+      <c r="A72" s="71"/>
+      <c r="B72" s="38">
         <v>12</v>
       </c>
-      <c r="C72" s="38" t="s">
+      <c r="C72" s="37" t="s">
         <v>298</v>
       </c>
-      <c r="D72" s="38" t="s">
+      <c r="D72" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="E72" s="37" t="s">
+      <c r="E72" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="F72" s="37"/>
+      <c r="F72" s="36"/>
       <c r="G72" s="7">
         <v>22</v>
       </c>
@@ -5476,20 +6148,20 @@
       <c r="AJ72" s="22"/>
     </row>
     <row r="73" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A73" s="48"/>
-      <c r="B73" s="39">
+      <c r="A73" s="71"/>
+      <c r="B73" s="38">
         <v>8</v>
       </c>
-      <c r="C73" s="38" t="s">
+      <c r="C73" s="37" t="s">
         <v>299</v>
       </c>
-      <c r="D73" s="38" t="s">
+      <c r="D73" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="E73" s="37" t="s">
+      <c r="E73" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="F73" s="37"/>
+      <c r="F73" s="36"/>
       <c r="G73" s="7">
         <v>94</v>
       </c>
@@ -5524,20 +6196,20 @@
       <c r="AJ73" s="22"/>
     </row>
     <row r="74" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A74" s="48"/>
-      <c r="B74" s="39">
+      <c r="A74" s="71"/>
+      <c r="B74" s="38">
         <v>3</v>
       </c>
-      <c r="C74" s="38" t="s">
+      <c r="C74" s="37" t="s">
         <v>300</v>
       </c>
-      <c r="D74" s="38" t="s">
+      <c r="D74" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="E74" s="37" t="s">
+      <c r="E74" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="F74" s="37"/>
+      <c r="F74" s="36"/>
       <c r="G74" s="7">
         <v>1</v>
       </c>
@@ -5572,20 +6244,20 @@
       <c r="AJ74" s="22"/>
     </row>
     <row r="75" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A75" s="48"/>
-      <c r="B75" s="39">
+      <c r="A75" s="71"/>
+      <c r="B75" s="38">
         <v>5</v>
       </c>
-      <c r="C75" s="38" t="s">
+      <c r="C75" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="D75" s="38" t="s">
+      <c r="D75" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="E75" s="37" t="s">
+      <c r="E75" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="F75" s="37"/>
+      <c r="F75" s="36"/>
       <c r="G75" s="7">
         <v>95</v>
       </c>
@@ -5620,20 +6292,20 @@
       <c r="AJ75" s="22"/>
     </row>
     <row r="76" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A76" s="48"/>
-      <c r="B76" s="39">
+      <c r="A76" s="71"/>
+      <c r="B76" s="38">
         <v>6</v>
       </c>
-      <c r="C76" s="38" t="s">
+      <c r="C76" s="37" t="s">
         <v>302</v>
       </c>
-      <c r="D76" s="38" t="s">
+      <c r="D76" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="E76" s="37" t="s">
+      <c r="E76" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="F76" s="37"/>
+      <c r="F76" s="36"/>
       <c r="G76" s="7">
         <v>96</v>
       </c>
@@ -5668,20 +6340,20 @@
       <c r="AJ76" s="22"/>
     </row>
     <row r="77" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A77" s="48"/>
-      <c r="B77" s="39">
+      <c r="A77" s="71"/>
+      <c r="B77" s="38">
         <v>9</v>
       </c>
-      <c r="C77" s="38" t="s">
+      <c r="C77" s="37" t="s">
         <v>303</v>
       </c>
-      <c r="D77" s="38" t="s">
+      <c r="D77" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="E77" s="37" t="s">
+      <c r="E77" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="F77" s="37"/>
+      <c r="F77" s="36"/>
       <c r="G77" s="7">
         <v>97</v>
       </c>
@@ -5716,20 +6388,20 @@
       <c r="AJ77" s="22"/>
     </row>
     <row r="78" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A78" s="48"/>
-      <c r="B78" s="39">
+      <c r="A78" s="71"/>
+      <c r="B78" s="38">
         <v>2</v>
       </c>
-      <c r="C78" s="38" t="s">
+      <c r="C78" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="D78" s="38" t="s">
+      <c r="D78" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="E78" s="37" t="s">
+      <c r="E78" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="F78" s="37"/>
+      <c r="F78" s="36"/>
       <c r="G78" s="7">
         <v>144</v>
       </c>
@@ -5764,20 +6436,20 @@
       <c r="AJ78" s="22"/>
     </row>
     <row r="79" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A79" s="48"/>
-      <c r="B79" s="39">
+      <c r="A79" s="71"/>
+      <c r="B79" s="38">
         <v>10</v>
       </c>
-      <c r="C79" s="38" t="s">
+      <c r="C79" s="37" t="s">
         <v>305</v>
       </c>
-      <c r="D79" s="38" t="s">
+      <c r="D79" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="E79" s="37" t="s">
+      <c r="E79" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="F79" s="37"/>
+      <c r="F79" s="36"/>
       <c r="G79" s="7">
         <v>99</v>
       </c>
@@ -5812,20 +6484,20 @@
       <c r="AJ79" s="22"/>
     </row>
     <row r="80" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A80" s="49"/>
-      <c r="B80" s="39">
+      <c r="A80" s="72"/>
+      <c r="B80" s="38">
         <v>13</v>
       </c>
-      <c r="C80" s="38" t="s">
+      <c r="C80" s="37" t="s">
         <v>306</v>
       </c>
-      <c r="D80" s="38" t="s">
+      <c r="D80" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="E80" s="37" t="s">
+      <c r="E80" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="F80" s="37"/>
+      <c r="F80" s="36"/>
       <c r="G80" s="7">
         <v>26</v>
       </c>
@@ -5898,22 +6570,22 @@
       <c r="AJ81" s="22"/>
     </row>
     <row r="82" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A82" s="40" t="s">
+      <c r="A82" s="79" t="s">
         <v>138</v>
       </c>
-      <c r="B82" s="43">
+      <c r="B82" s="41">
         <v>55</v>
       </c>
-      <c r="C82" s="42" t="s">
+      <c r="C82" s="40" t="s">
         <v>307</v>
       </c>
-      <c r="D82" s="42" t="s">
+      <c r="D82" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="E82" s="41" t="s">
+      <c r="E82" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="F82" s="41" t="s">
+      <c r="F82" s="39" t="s">
         <v>171</v>
       </c>
       <c r="G82" s="7">
@@ -5950,20 +6622,20 @@
       <c r="AJ82" s="22"/>
     </row>
     <row r="83" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
-      <c r="B83" s="43">
+      <c r="A83" s="79"/>
+      <c r="B83" s="41">
         <v>56</v>
       </c>
-      <c r="C83" s="42" t="s">
+      <c r="C83" s="40" t="s">
         <v>308</v>
       </c>
-      <c r="D83" s="42" t="s">
+      <c r="D83" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="E83" s="41" t="s">
+      <c r="E83" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="F83" s="41"/>
+      <c r="F83" s="39"/>
       <c r="G83" s="7">
         <v>3</v>
       </c>
@@ -5998,20 +6670,20 @@
       <c r="AJ83" s="22"/>
     </row>
     <row r="84" spans="1:36" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
-      <c r="B84" s="43">
+      <c r="A84" s="79"/>
+      <c r="B84" s="41">
         <v>57</v>
       </c>
-      <c r="C84" s="42" t="s">
+      <c r="C84" s="40" t="s">
         <v>309</v>
       </c>
-      <c r="D84" s="42" t="s">
+      <c r="D84" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="E84" s="41" t="s">
+      <c r="E84" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="F84" s="41"/>
+      <c r="F84" s="39"/>
       <c r="G84" s="7">
         <v>119</v>
       </c>
@@ -6046,20 +6718,20 @@
       <c r="AJ84" s="22"/>
     </row>
     <row r="85" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
-      <c r="B85" s="43">
+      <c r="A85" s="79"/>
+      <c r="B85" s="41">
         <v>58</v>
       </c>
-      <c r="C85" s="42" t="s">
+      <c r="C85" s="40" t="s">
         <v>310</v>
       </c>
-      <c r="D85" s="42" t="s">
+      <c r="D85" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="E85" s="41" t="s">
+      <c r="E85" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="F85" s="41" t="s">
+      <c r="F85" s="39" t="s">
         <v>172</v>
       </c>
       <c r="G85" s="7">
@@ -6096,20 +6768,20 @@
       <c r="AJ85" s="22"/>
     </row>
     <row r="86" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
-      <c r="B86" s="43">
+      <c r="A86" s="79"/>
+      <c r="B86" s="41">
         <v>59</v>
       </c>
-      <c r="C86" s="42" t="s">
+      <c r="C86" s="40" t="s">
         <v>311</v>
       </c>
-      <c r="D86" s="42" t="s">
+      <c r="D86" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="E86" s="41" t="s">
+      <c r="E86" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="F86" s="41"/>
+      <c r="F86" s="39"/>
       <c r="G86" s="7">
         <v>5</v>
       </c>
@@ -6144,20 +6816,20 @@
       <c r="AJ86" s="22"/>
     </row>
     <row r="87" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
-      <c r="B87" s="43">
+      <c r="A87" s="79"/>
+      <c r="B87" s="41">
         <v>60</v>
       </c>
-      <c r="C87" s="42" t="s">
+      <c r="C87" s="40" t="s">
         <v>312</v>
       </c>
-      <c r="D87" s="42" t="s">
+      <c r="D87" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="E87" s="41" t="s">
+      <c r="E87" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="F87" s="41"/>
+      <c r="F87" s="39"/>
       <c r="G87" s="7">
         <v>122</v>
       </c>
@@ -6230,22 +6902,22 @@
       <c r="AJ88" s="22"/>
     </row>
     <row r="89" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="47" t="s">
+      <c r="A89" s="70" t="s">
         <v>334</v>
       </c>
-      <c r="B89" s="39">
+      <c r="B89" s="38">
         <v>65</v>
       </c>
-      <c r="C89" s="38" t="s">
+      <c r="C89" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="D89" s="38" t="s">
+      <c r="D89" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="E89" s="37" t="s">
+      <c r="E89" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="F89" s="37"/>
+      <c r="F89" s="36"/>
       <c r="G89" s="7">
         <v>113</v>
       </c>
@@ -6280,20 +6952,20 @@
       <c r="AJ89" s="22"/>
     </row>
     <row r="90" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A90" s="48"/>
-      <c r="B90" s="39">
+      <c r="A90" s="71"/>
+      <c r="B90" s="38">
         <v>64</v>
       </c>
-      <c r="C90" s="38" t="s">
+      <c r="C90" s="37" t="s">
         <v>314</v>
       </c>
-      <c r="D90" s="38" t="s">
+      <c r="D90" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="E90" s="37" t="s">
+      <c r="E90" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="F90" s="37"/>
+      <c r="F90" s="36"/>
       <c r="G90" s="7">
         <v>68</v>
       </c>
@@ -6328,20 +7000,20 @@
       <c r="AJ90" s="22"/>
     </row>
     <row r="91" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A91" s="48"/>
-      <c r="B91" s="39">
+      <c r="A91" s="71"/>
+      <c r="B91" s="38">
         <v>68</v>
       </c>
-      <c r="C91" s="38" t="s">
+      <c r="C91" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="D91" s="38" t="s">
+      <c r="D91" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="E91" s="37" t="s">
+      <c r="E91" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="F91" s="37"/>
+      <c r="F91" s="36"/>
       <c r="G91" s="7">
         <v>102</v>
       </c>
@@ -6376,20 +7048,20 @@
       <c r="AJ91" s="22"/>
     </row>
     <row r="92" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A92" s="48"/>
-      <c r="B92" s="39">
+      <c r="A92" s="71"/>
+      <c r="B92" s="38">
         <v>66</v>
       </c>
-      <c r="C92" s="38" t="s">
+      <c r="C92" s="37" t="s">
         <v>316</v>
       </c>
-      <c r="D92" s="38" t="s">
+      <c r="D92" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="E92" s="37" t="s">
+      <c r="E92" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="F92" s="37"/>
+      <c r="F92" s="36"/>
       <c r="G92" s="7">
         <v>141</v>
       </c>
@@ -6424,20 +7096,20 @@
       <c r="AJ92" s="22"/>
     </row>
     <row r="93" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A93" s="48"/>
-      <c r="B93" s="39">
+      <c r="A93" s="71"/>
+      <c r="B93" s="38">
         <v>63</v>
       </c>
-      <c r="C93" s="38" t="s">
+      <c r="C93" s="37" t="s">
         <v>317</v>
       </c>
-      <c r="D93" s="38" t="s">
+      <c r="D93" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="E93" s="37" t="s">
+      <c r="E93" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="F93" s="37"/>
+      <c r="F93" s="36"/>
       <c r="G93" s="7">
         <v>142</v>
       </c>
@@ -6472,20 +7144,20 @@
       <c r="AJ93" s="22"/>
     </row>
     <row r="94" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A94" s="48"/>
-      <c r="B94" s="39">
+      <c r="A94" s="71"/>
+      <c r="B94" s="38">
         <v>67</v>
       </c>
-      <c r="C94" s="38" t="s">
+      <c r="C94" s="37" t="s">
         <v>318</v>
       </c>
-      <c r="D94" s="38" t="s">
+      <c r="D94" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="E94" s="37" t="s">
+      <c r="E94" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="F94" s="37"/>
+      <c r="F94" s="36"/>
       <c r="G94" s="7">
         <v>98</v>
       </c>
@@ -6520,20 +7192,20 @@
       <c r="AJ94" s="22"/>
     </row>
     <row r="95" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A95" s="48"/>
-      <c r="B95" s="39">
+      <c r="A95" s="71"/>
+      <c r="B95" s="38">
         <v>61</v>
       </c>
-      <c r="C95" s="38" t="s">
+      <c r="C95" s="37" t="s">
         <v>319</v>
       </c>
-      <c r="D95" s="38" t="s">
+      <c r="D95" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="E95" s="37" t="s">
+      <c r="E95" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="F95" s="37"/>
+      <c r="F95" s="36"/>
       <c r="G95" s="7">
         <v>114</v>
       </c>
@@ -6568,20 +7240,20 @@
       <c r="AJ95" s="22"/>
     </row>
     <row r="96" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A96" s="49"/>
-      <c r="B96" s="39">
+      <c r="A96" s="72"/>
+      <c r="B96" s="38">
         <v>62</v>
       </c>
-      <c r="C96" s="38" t="s">
+      <c r="C96" s="37" t="s">
         <v>320</v>
       </c>
-      <c r="D96" s="38" t="s">
+      <c r="D96" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="E96" s="37" t="s">
+      <c r="E96" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="F96" s="37"/>
+      <c r="F96" s="36"/>
       <c r="G96" s="7">
         <v>115</v>
       </c>
@@ -6654,22 +7326,22 @@
       <c r="AJ97" s="22"/>
     </row>
     <row r="98" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A98" s="44" t="s">
+      <c r="A98" s="73" t="s">
         <v>337</v>
       </c>
-      <c r="B98" s="63">
+      <c r="B98" s="52">
         <v>43</v>
       </c>
-      <c r="C98" s="42" t="s">
+      <c r="C98" s="40" t="s">
         <v>338</v>
       </c>
-      <c r="D98" s="42" t="s">
+      <c r="D98" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="E98" s="41" t="s">
+      <c r="E98" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="F98" s="41" t="s">
+      <c r="F98" s="39" t="s">
         <v>264</v>
       </c>
       <c r="G98" s="7">
@@ -6706,20 +7378,20 @@
       <c r="AJ98" s="22"/>
     </row>
     <row r="99" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A99" s="45"/>
-      <c r="B99" s="63">
+      <c r="A99" s="74"/>
+      <c r="B99" s="52">
         <v>44</v>
       </c>
-      <c r="C99" s="42" t="s">
+      <c r="C99" s="40" t="s">
         <v>339</v>
       </c>
-      <c r="D99" s="42" t="s">
+      <c r="D99" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="E99" s="41" t="s">
+      <c r="E99" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="F99" s="41" t="s">
+      <c r="F99" s="39" t="s">
         <v>264</v>
       </c>
       <c r="G99" s="7">
@@ -6756,20 +7428,20 @@
       <c r="AJ99" s="22"/>
     </row>
     <row r="100" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A100" s="45"/>
-      <c r="B100" s="63">
+      <c r="A100" s="74"/>
+      <c r="B100" s="52">
         <v>45</v>
       </c>
-      <c r="C100" s="42" t="s">
+      <c r="C100" s="40" t="s">
         <v>340</v>
       </c>
-      <c r="D100" s="42" t="s">
+      <c r="D100" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="E100" s="41" t="s">
+      <c r="E100" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="F100" s="41" t="s">
+      <c r="F100" s="39" t="s">
         <v>264</v>
       </c>
       <c r="G100" s="7">
@@ -6806,20 +7478,20 @@
       <c r="AJ100" s="22"/>
     </row>
     <row r="101" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A101" s="45"/>
-      <c r="B101" s="66">
+      <c r="A101" s="74"/>
+      <c r="B101" s="55">
         <v>46</v>
       </c>
-      <c r="C101" s="65" t="s">
+      <c r="C101" s="54" t="s">
         <v>342</v>
       </c>
-      <c r="D101" s="65" t="s">
+      <c r="D101" s="54" t="s">
         <v>263</v>
       </c>
-      <c r="E101" s="64" t="s">
+      <c r="E101" s="53" t="s">
         <v>262</v>
       </c>
-      <c r="F101" s="64" t="s">
+      <c r="F101" s="53" t="s">
         <v>264</v>
       </c>
       <c r="G101" s="7">
@@ -6856,20 +7528,20 @@
       <c r="AJ101" s="22"/>
     </row>
     <row r="102" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A102" s="46"/>
-      <c r="B102" s="63">
+      <c r="A102" s="75"/>
+      <c r="B102" s="52">
         <v>47</v>
       </c>
-      <c r="C102" s="42" t="s">
+      <c r="C102" s="40" t="s">
         <v>341</v>
       </c>
-      <c r="D102" s="42" t="s">
+      <c r="D102" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="E102" s="41" t="s">
+      <c r="E102" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="F102" s="41"/>
+      <c r="F102" s="39"/>
       <c r="G102" s="7">
         <v>111</v>
       </c>
@@ -6942,22 +7614,22 @@
       <c r="AJ103" s="22"/>
     </row>
     <row r="104" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A104" s="76" t="s">
+      <c r="A104" s="84" t="s">
         <v>178</v>
       </c>
-      <c r="B104" s="70">
+      <c r="B104" s="59">
         <v>77</v>
       </c>
-      <c r="C104" s="69" t="s">
+      <c r="C104" s="58" t="s">
         <v>356</v>
       </c>
-      <c r="D104" s="69" t="s">
+      <c r="D104" s="58" t="s">
         <v>375</v>
       </c>
-      <c r="E104" s="68" t="s">
+      <c r="E104" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="F104" s="71" t="s">
+      <c r="F104" s="77" t="s">
         <v>355</v>
       </c>
       <c r="G104" s="7">
@@ -6994,20 +7666,20 @@
       <c r="AJ104" s="22"/>
     </row>
     <row r="105" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A105" s="77"/>
-      <c r="B105" s="72">
+      <c r="A105" s="85"/>
+      <c r="B105" s="60">
         <v>78</v>
       </c>
-      <c r="C105" s="73" t="s">
+      <c r="C105" s="61" t="s">
         <v>357</v>
       </c>
-      <c r="D105" s="73" t="s">
+      <c r="D105" s="61" t="s">
         <v>289</v>
       </c>
-      <c r="E105" s="74" t="s">
+      <c r="E105" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="F105" s="75"/>
+      <c r="F105" s="78"/>
       <c r="G105" s="7">
         <v>18</v>
       </c>
@@ -7042,20 +7714,20 @@
       <c r="AJ105" s="22"/>
     </row>
     <row r="106" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A106" s="77"/>
-      <c r="B106" s="72">
+      <c r="A106" s="85"/>
+      <c r="B106" s="60">
         <v>79</v>
       </c>
-      <c r="C106" s="73" t="s">
+      <c r="C106" s="61" t="s">
         <v>359</v>
       </c>
-      <c r="D106" s="73" t="s">
+      <c r="D106" s="61" t="s">
         <v>376</v>
       </c>
-      <c r="E106" s="74" t="s">
+      <c r="E106" s="62" t="s">
         <v>359</v>
       </c>
-      <c r="F106" s="74"/>
+      <c r="F106" s="62"/>
       <c r="G106" s="7">
         <v>9</v>
       </c>
@@ -7090,20 +7762,20 @@
       <c r="AJ106" s="22"/>
     </row>
     <row r="107" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A107" s="77"/>
-      <c r="B107" s="72">
+      <c r="A107" s="85"/>
+      <c r="B107" s="60">
         <v>80</v>
       </c>
-      <c r="C107" s="73" t="s">
+      <c r="C107" s="61" t="s">
         <v>241</v>
       </c>
-      <c r="D107" s="73" t="s">
+      <c r="D107" s="61" t="s">
         <v>240</v>
       </c>
-      <c r="E107" s="74" t="s">
+      <c r="E107" s="62" t="s">
         <v>241</v>
       </c>
-      <c r="F107" s="74" t="s">
+      <c r="F107" s="62" t="s">
         <v>242</v>
       </c>
       <c r="G107" s="7">
@@ -7140,20 +7812,20 @@
       <c r="AJ107" s="22"/>
     </row>
     <row r="108" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A108" s="78"/>
-      <c r="B108" s="72">
+      <c r="A108" s="83"/>
+      <c r="B108" s="60">
         <v>83</v>
       </c>
-      <c r="C108" s="73" t="s">
+      <c r="C108" s="61" t="s">
         <v>360</v>
       </c>
-      <c r="D108" s="73" t="s">
+      <c r="D108" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="E108" s="74" t="s">
+      <c r="E108" s="62" t="s">
         <v>259</v>
       </c>
-      <c r="F108" s="74" t="s">
+      <c r="F108" s="62" t="s">
         <v>260</v>
       </c>
       <c r="G108" s="7">
@@ -7228,22 +7900,22 @@
       <c r="AJ109" s="22"/>
     </row>
     <row r="110" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A110" s="81" t="s">
+      <c r="A110" s="80" t="s">
         <v>365</v>
       </c>
-      <c r="B110" s="66">
+      <c r="B110" s="55">
         <v>92</v>
       </c>
-      <c r="C110" s="65" t="s">
+      <c r="C110" s="54" t="s">
         <v>292</v>
       </c>
-      <c r="D110" s="65" t="s">
+      <c r="D110" s="54" t="s">
         <v>291</v>
       </c>
-      <c r="E110" s="64" t="s">
+      <c r="E110" s="53" t="s">
         <v>189</v>
       </c>
-      <c r="F110" s="64" t="s">
+      <c r="F110" s="53" t="s">
         <v>245</v>
       </c>
       <c r="G110" s="7">
@@ -7280,20 +7952,20 @@
       <c r="AJ110" s="22"/>
     </row>
     <row r="111" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A111" s="82"/>
-      <c r="B111" s="66">
+      <c r="A111" s="81"/>
+      <c r="B111" s="55">
         <v>94</v>
       </c>
-      <c r="C111" s="65" t="s">
+      <c r="C111" s="54" t="s">
         <v>362</v>
       </c>
-      <c r="D111" s="65" t="s">
+      <c r="D111" s="54" t="s">
         <v>289</v>
       </c>
-      <c r="E111" s="64" t="s">
+      <c r="E111" s="53" t="s">
         <v>290</v>
       </c>
-      <c r="F111" s="64" t="s">
+      <c r="F111" s="53" t="s">
         <v>288</v>
       </c>
       <c r="G111" s="7" t="s">
@@ -7368,22 +8040,22 @@
       <c r="AJ112" s="22"/>
     </row>
     <row r="113" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A113" s="80" t="s">
+      <c r="A113" s="82" t="s">
         <v>373</v>
       </c>
-      <c r="B113" s="72">
+      <c r="B113" s="60">
         <v>81</v>
       </c>
-      <c r="C113" s="73" t="s">
+      <c r="C113" s="61" t="s">
         <v>252</v>
       </c>
-      <c r="D113" s="73" t="s">
+      <c r="D113" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="E113" s="74" t="s">
+      <c r="E113" s="62" t="s">
         <v>252</v>
       </c>
-      <c r="F113" s="74" t="s">
+      <c r="F113" s="62" t="s">
         <v>253</v>
       </c>
       <c r="G113" s="7">
@@ -7420,20 +8092,20 @@
       <c r="AJ113" s="22"/>
     </row>
     <row r="114" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A114" s="78"/>
-      <c r="B114" s="72">
+      <c r="A114" s="83"/>
+      <c r="B114" s="60">
         <v>82</v>
       </c>
-      <c r="C114" s="73" t="s">
+      <c r="C114" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="D114" s="73" t="s">
+      <c r="D114" s="61" t="s">
         <v>255</v>
       </c>
-      <c r="E114" s="74" t="s">
+      <c r="E114" s="62" t="s">
         <v>254</v>
       </c>
-      <c r="F114" s="74" t="s">
+      <c r="F114" s="62" t="s">
         <v>253</v>
       </c>
       <c r="G114" s="7">
@@ -7508,22 +8180,22 @@
       <c r="AJ115" s="22"/>
     </row>
     <row r="116" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A116" s="67" t="s">
+      <c r="A116" s="56" t="s">
         <v>361</v>
       </c>
-      <c r="B116" s="66">
+      <c r="B116" s="55">
         <v>84</v>
       </c>
-      <c r="C116" s="65" t="s">
+      <c r="C116" s="54" t="s">
         <v>257</v>
       </c>
-      <c r="D116" s="65" t="s">
+      <c r="D116" s="54" t="s">
         <v>256</v>
       </c>
-      <c r="E116" s="64" t="s">
+      <c r="E116" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="F116" s="64" t="s">
+      <c r="F116" s="53" t="s">
         <v>258</v>
       </c>
       <c r="G116" s="7">
@@ -7560,22 +8232,22 @@
       <c r="AJ116" s="22"/>
     </row>
     <row r="117" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A117" s="67" t="s">
+      <c r="A117" s="56" t="s">
         <v>366</v>
       </c>
-      <c r="B117" s="66">
+      <c r="B117" s="55">
         <v>85</v>
       </c>
-      <c r="C117" s="65" t="s">
+      <c r="C117" s="54" t="s">
         <v>366</v>
       </c>
-      <c r="D117" s="65" t="s">
+      <c r="D117" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="E117" s="64" t="s">
+      <c r="E117" s="53" t="s">
         <v>366</v>
       </c>
-      <c r="F117" s="64" t="s">
+      <c r="F117" s="53" t="s">
         <v>374</v>
       </c>
       <c r="G117" s="7">
@@ -7612,12 +8284,12 @@
       <c r="AJ117" s="22"/>
     </row>
     <row r="118" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A118" s="83"/>
-      <c r="B118" s="84"/>
-      <c r="C118" s="85"/>
-      <c r="D118" s="85"/>
-      <c r="E118" s="86"/>
-      <c r="F118" s="87"/>
+      <c r="A118" s="63"/>
+      <c r="B118" s="64"/>
+      <c r="C118" s="65"/>
+      <c r="D118" s="65"/>
+      <c r="E118" s="66"/>
+      <c r="F118" s="67"/>
       <c r="G118" s="7"/>
       <c r="H118" s="22"/>
       <c r="I118" s="22"/>
@@ -7650,16 +8322,16 @@
       <c r="AJ118" s="22"/>
     </row>
     <row r="119" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A119" s="59"/>
-      <c r="B119" s="60"/>
-      <c r="C119" s="58"/>
-      <c r="D119" s="58" t="s">
+      <c r="A119" s="50"/>
+      <c r="B119" s="51"/>
+      <c r="C119" s="49"/>
+      <c r="D119" s="49" t="s">
         <v>271</v>
       </c>
-      <c r="E119" s="57" t="s">
+      <c r="E119" s="48" t="s">
         <v>270</v>
       </c>
-      <c r="F119" s="57"/>
+      <c r="F119" s="48"/>
       <c r="G119" s="7">
         <v>128</v>
       </c>
@@ -7694,16 +8366,16 @@
       <c r="AJ119" s="22"/>
     </row>
     <row r="120" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A120" s="59"/>
-      <c r="B120" s="60"/>
-      <c r="C120" s="58"/>
-      <c r="D120" s="58" t="s">
+      <c r="A120" s="50"/>
+      <c r="B120" s="51"/>
+      <c r="C120" s="49"/>
+      <c r="D120" s="49" t="s">
         <v>273</v>
       </c>
-      <c r="E120" s="57" t="s">
+      <c r="E120" s="48" t="s">
         <v>272</v>
       </c>
-      <c r="F120" s="57"/>
+      <c r="F120" s="48"/>
       <c r="G120" s="7">
         <v>129</v>
       </c>
@@ -7738,16 +8410,16 @@
       <c r="AJ120" s="22"/>
     </row>
     <row r="121" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A121" s="59"/>
-      <c r="B121" s="60"/>
-      <c r="C121" s="58"/>
-      <c r="D121" s="58" t="s">
+      <c r="A121" s="50"/>
+      <c r="B121" s="51"/>
+      <c r="C121" s="49"/>
+      <c r="D121" s="49" t="s">
         <v>275</v>
       </c>
-      <c r="E121" s="57" t="s">
+      <c r="E121" s="48" t="s">
         <v>274</v>
       </c>
-      <c r="F121" s="57"/>
+      <c r="F121" s="48"/>
       <c r="G121" s="7">
         <v>130</v>
       </c>
@@ -7782,16 +8454,16 @@
       <c r="AJ121" s="22"/>
     </row>
     <row r="122" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A122" s="59"/>
-      <c r="B122" s="60"/>
-      <c r="C122" s="58"/>
-      <c r="D122" s="58" t="s">
+      <c r="A122" s="50"/>
+      <c r="B122" s="51"/>
+      <c r="C122" s="49"/>
+      <c r="D122" s="49" t="s">
         <v>277</v>
       </c>
-      <c r="E122" s="57" t="s">
+      <c r="E122" s="48" t="s">
         <v>276</v>
       </c>
-      <c r="F122" s="57"/>
+      <c r="F122" s="48"/>
       <c r="G122" s="7">
         <v>143</v>
       </c>
@@ -7826,12 +8498,12 @@
       <c r="AJ122" s="22"/>
     </row>
     <row r="123" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A123" s="83"/>
-      <c r="B123" s="84"/>
-      <c r="C123" s="85"/>
-      <c r="D123" s="85"/>
-      <c r="E123" s="86"/>
-      <c r="F123" s="87"/>
+      <c r="A123" s="63"/>
+      <c r="B123" s="64"/>
+      <c r="C123" s="65"/>
+      <c r="D123" s="65"/>
+      <c r="E123" s="66"/>
+      <c r="F123" s="67"/>
       <c r="G123" s="7"/>
       <c r="H123" s="22"/>
       <c r="I123" s="22"/>
@@ -7864,18 +8536,18 @@
       <c r="AJ123" s="22"/>
     </row>
     <row r="124" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="62" t="s">
+      <c r="A124" s="86" t="s">
         <v>244</v>
       </c>
-      <c r="B124" s="60"/>
-      <c r="C124" s="58"/>
-      <c r="D124" s="58" t="s">
+      <c r="B124" s="51"/>
+      <c r="C124" s="49"/>
+      <c r="D124" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="E124" s="57" t="s">
+      <c r="E124" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="F124" s="57"/>
+      <c r="F124" s="48"/>
       <c r="G124" s="7">
         <v>10</v>
       </c>
@@ -7910,16 +8582,16 @@
       <c r="AJ124" s="22"/>
     </row>
     <row r="125" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A125" s="79"/>
-      <c r="B125" s="60"/>
-      <c r="C125" s="58"/>
-      <c r="D125" s="58" t="s">
+      <c r="A125" s="87"/>
+      <c r="B125" s="51"/>
+      <c r="C125" s="49"/>
+      <c r="D125" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="E125" s="57" t="s">
+      <c r="E125" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="F125" s="57"/>
+      <c r="F125" s="48"/>
       <c r="G125" s="7">
         <v>61</v>
       </c>
@@ -7954,16 +8626,16 @@
       <c r="AJ125" s="22"/>
     </row>
     <row r="126" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A126" s="79"/>
-      <c r="B126" s="60"/>
-      <c r="C126" s="58"/>
-      <c r="D126" s="58" t="s">
+      <c r="A126" s="87"/>
+      <c r="B126" s="51"/>
+      <c r="C126" s="49"/>
+      <c r="D126" s="49" t="s">
         <v>261</v>
       </c>
-      <c r="E126" s="57" t="s">
+      <c r="E126" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="F126" s="57"/>
+      <c r="F126" s="48"/>
       <c r="G126" s="7">
         <v>104</v>
       </c>
@@ -7998,16 +8670,16 @@
       <c r="AJ126" s="22"/>
     </row>
     <row r="127" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A127" s="79"/>
-      <c r="B127" s="60"/>
-      <c r="C127" s="58"/>
-      <c r="D127" s="58" t="s">
+      <c r="A127" s="87"/>
+      <c r="B127" s="51"/>
+      <c r="C127" s="49"/>
+      <c r="D127" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="E127" s="57" t="s">
+      <c r="E127" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="F127" s="57"/>
+      <c r="F127" s="48"/>
       <c r="G127" s="7">
         <v>124</v>
       </c>
@@ -8042,16 +8714,16 @@
       <c r="AJ127" s="22"/>
     </row>
     <row r="128" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A128" s="79"/>
-      <c r="B128" s="60"/>
-      <c r="C128" s="58"/>
-      <c r="D128" s="58" t="s">
+      <c r="A128" s="87"/>
+      <c r="B128" s="51"/>
+      <c r="C128" s="49"/>
+      <c r="D128" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="E128" s="57" t="s">
+      <c r="E128" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="F128" s="57"/>
+      <c r="F128" s="48"/>
       <c r="G128" s="7">
         <v>11</v>
       </c>
@@ -8086,16 +8758,16 @@
       <c r="AJ128" s="22"/>
     </row>
     <row r="129" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A129" s="79"/>
-      <c r="B129" s="60"/>
-      <c r="C129" s="58"/>
-      <c r="D129" s="58" t="s">
+      <c r="A129" s="87"/>
+      <c r="B129" s="51"/>
+      <c r="C129" s="49"/>
+      <c r="D129" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="E129" s="57" t="s">
+      <c r="E129" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="F129" s="57"/>
+      <c r="F129" s="48"/>
       <c r="G129" s="7">
         <v>62</v>
       </c>
@@ -8130,16 +8802,16 @@
       <c r="AJ129" s="22"/>
     </row>
     <row r="130" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A130" s="79"/>
-      <c r="B130" s="60"/>
-      <c r="C130" s="58"/>
-      <c r="D130" s="58" t="s">
+      <c r="A130" s="87"/>
+      <c r="B130" s="51"/>
+      <c r="C130" s="49"/>
+      <c r="D130" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="E130" s="57" t="s">
+      <c r="E130" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="F130" s="57"/>
+      <c r="F130" s="48"/>
       <c r="G130" s="7">
         <v>105</v>
       </c>
@@ -8174,16 +8846,16 @@
       <c r="AJ130" s="22"/>
     </row>
     <row r="131" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A131" s="79"/>
-      <c r="B131" s="60"/>
-      <c r="C131" s="58"/>
-      <c r="D131" s="58" t="s">
+      <c r="A131" s="87"/>
+      <c r="B131" s="51"/>
+      <c r="C131" s="49"/>
+      <c r="D131" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="E131" s="57" t="s">
+      <c r="E131" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="F131" s="57"/>
+      <c r="F131" s="48"/>
       <c r="G131" s="7">
         <v>125</v>
       </c>
@@ -8218,16 +8890,16 @@
       <c r="AJ131" s="22"/>
     </row>
     <row r="132" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A132" s="79"/>
-      <c r="B132" s="60"/>
-      <c r="C132" s="58"/>
-      <c r="D132" s="58" t="s">
+      <c r="A132" s="87"/>
+      <c r="B132" s="51"/>
+      <c r="C132" s="49"/>
+      <c r="D132" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="E132" s="57" t="s">
+      <c r="E132" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="F132" s="57"/>
+      <c r="F132" s="48"/>
       <c r="G132" s="7">
         <v>12</v>
       </c>
@@ -8262,16 +8934,16 @@
       <c r="AJ132" s="22"/>
     </row>
     <row r="133" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A133" s="79"/>
-      <c r="B133" s="60"/>
-      <c r="C133" s="58"/>
-      <c r="D133" s="58" t="s">
+      <c r="A133" s="87"/>
+      <c r="B133" s="51"/>
+      <c r="C133" s="49"/>
+      <c r="D133" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="E133" s="57" t="s">
+      <c r="E133" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="F133" s="57"/>
+      <c r="F133" s="48"/>
       <c r="G133" s="7">
         <v>58</v>
       </c>
@@ -8306,16 +8978,16 @@
       <c r="AJ133" s="22"/>
     </row>
     <row r="134" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A134" s="79"/>
-      <c r="B134" s="60"/>
-      <c r="C134" s="58"/>
-      <c r="D134" s="58" t="s">
+      <c r="A134" s="87"/>
+      <c r="B134" s="51"/>
+      <c r="C134" s="49"/>
+      <c r="D134" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="E134" s="57" t="s">
+      <c r="E134" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="F134" s="57"/>
+      <c r="F134" s="48"/>
       <c r="G134" s="7">
         <v>106</v>
       </c>
@@ -8350,16 +9022,16 @@
       <c r="AJ134" s="22"/>
     </row>
     <row r="135" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A135" s="79"/>
-      <c r="B135" s="60"/>
-      <c r="C135" s="58"/>
-      <c r="D135" s="58" t="s">
+      <c r="A135" s="87"/>
+      <c r="B135" s="51"/>
+      <c r="C135" s="49"/>
+      <c r="D135" s="49" t="s">
         <v>268</v>
       </c>
-      <c r="E135" s="57" t="s">
+      <c r="E135" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="F135" s="57"/>
+      <c r="F135" s="48"/>
       <c r="G135" s="7">
         <v>126</v>
       </c>
@@ -8394,16 +9066,16 @@
       <c r="AJ135" s="22"/>
     </row>
     <row r="136" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A136" s="79"/>
-      <c r="B136" s="60"/>
-      <c r="C136" s="58"/>
-      <c r="D136" s="58" t="s">
+      <c r="A136" s="87"/>
+      <c r="B136" s="51"/>
+      <c r="C136" s="49"/>
+      <c r="D136" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="E136" s="57" t="s">
+      <c r="E136" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="F136" s="57"/>
+      <c r="F136" s="48"/>
       <c r="G136" s="7">
         <v>33</v>
       </c>
@@ -8438,16 +9110,16 @@
       <c r="AJ136" s="22"/>
     </row>
     <row r="137" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A137" s="79"/>
-      <c r="B137" s="60"/>
-      <c r="C137" s="58"/>
-      <c r="D137" s="58" t="s">
+      <c r="A137" s="87"/>
+      <c r="B137" s="51"/>
+      <c r="C137" s="49"/>
+      <c r="D137" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="E137" s="57" t="s">
+      <c r="E137" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="F137" s="57"/>
+      <c r="F137" s="48"/>
       <c r="G137" s="7">
         <v>74</v>
       </c>
@@ -8482,16 +9154,16 @@
       <c r="AJ137" s="22"/>
     </row>
     <row r="138" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A138" s="79"/>
-      <c r="B138" s="60"/>
-      <c r="C138" s="58"/>
-      <c r="D138" s="58" t="s">
+      <c r="A138" s="87"/>
+      <c r="B138" s="51"/>
+      <c r="C138" s="49"/>
+      <c r="D138" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="E138" s="57" t="s">
+      <c r="E138" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="F138" s="57"/>
+      <c r="F138" s="48"/>
       <c r="G138" s="7">
         <v>34</v>
       </c>
@@ -8526,16 +9198,16 @@
       <c r="AJ138" s="22"/>
     </row>
     <row r="139" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A139" s="79"/>
-      <c r="B139" s="60"/>
-      <c r="C139" s="58"/>
-      <c r="D139" s="58" t="s">
+      <c r="A139" s="87"/>
+      <c r="B139" s="51"/>
+      <c r="C139" s="49"/>
+      <c r="D139" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="E139" s="57" t="s">
+      <c r="E139" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="F139" s="57" t="s">
+      <c r="F139" s="48" t="s">
         <v>204</v>
       </c>
       <c r="G139" s="7">
@@ -8572,16 +9244,16 @@
       <c r="AJ139" s="22"/>
     </row>
     <row r="140" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A140" s="79"/>
-      <c r="B140" s="60"/>
-      <c r="C140" s="58"/>
-      <c r="D140" s="58" t="s">
+      <c r="A140" s="87"/>
+      <c r="B140" s="51"/>
+      <c r="C140" s="49"/>
+      <c r="D140" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="E140" s="57" t="s">
+      <c r="E140" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="F140" s="57" t="s">
+      <c r="F140" s="48" t="s">
         <v>204</v>
       </c>
       <c r="G140" s="7">
@@ -8618,16 +9290,16 @@
       <c r="AJ140" s="22"/>
     </row>
     <row r="141" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A141" s="79"/>
-      <c r="B141" s="60"/>
-      <c r="C141" s="58"/>
-      <c r="D141" s="58" t="s">
+      <c r="A141" s="87"/>
+      <c r="B141" s="51"/>
+      <c r="C141" s="49"/>
+      <c r="D141" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="E141" s="57" t="s">
+      <c r="E141" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="F141" s="57" t="s">
+      <c r="F141" s="48" t="s">
         <v>217</v>
       </c>
       <c r="G141" s="7">
@@ -8664,16 +9336,16 @@
       <c r="AJ141" s="22"/>
     </row>
     <row r="142" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A142" s="79"/>
-      <c r="B142" s="60"/>
-      <c r="C142" s="58"/>
-      <c r="D142" s="58" t="s">
+      <c r="A142" s="87"/>
+      <c r="B142" s="51"/>
+      <c r="C142" s="49"/>
+      <c r="D142" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="E142" s="57" t="s">
+      <c r="E142" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="F142" s="57" t="s">
+      <c r="F142" s="48" t="s">
         <v>216</v>
       </c>
       <c r="G142" s="7">
@@ -8710,16 +9382,16 @@
       <c r="AJ142" s="22"/>
     </row>
     <row r="143" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A143" s="79"/>
-      <c r="B143" s="60"/>
-      <c r="C143" s="58"/>
-      <c r="D143" s="58" t="s">
+      <c r="A143" s="87"/>
+      <c r="B143" s="51"/>
+      <c r="C143" s="49"/>
+      <c r="D143" s="49" t="s">
         <v>213</v>
       </c>
-      <c r="E143" s="57" t="s">
+      <c r="E143" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="F143" s="57" t="s">
+      <c r="F143" s="48" t="s">
         <v>215</v>
       </c>
       <c r="G143" s="7">
@@ -8756,16 +9428,16 @@
       <c r="AJ143" s="22"/>
     </row>
     <row r="144" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A144" s="79"/>
-      <c r="B144" s="60"/>
-      <c r="C144" s="58"/>
-      <c r="D144" s="58" t="s">
+      <c r="A144" s="87"/>
+      <c r="B144" s="51"/>
+      <c r="C144" s="49"/>
+      <c r="D144" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="E144" s="57" t="s">
+      <c r="E144" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="F144" s="57"/>
+      <c r="F144" s="48"/>
       <c r="G144" s="7">
         <v>40</v>
       </c>
@@ -8800,16 +9472,16 @@
       <c r="AJ144" s="22"/>
     </row>
     <row r="145" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A145" s="79"/>
-      <c r="B145" s="60"/>
-      <c r="C145" s="58"/>
-      <c r="D145" s="58" t="s">
+      <c r="A145" s="87"/>
+      <c r="B145" s="51"/>
+      <c r="C145" s="49"/>
+      <c r="D145" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="E145" s="57" t="s">
+      <c r="E145" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="F145" s="57"/>
+      <c r="F145" s="48"/>
       <c r="G145" s="7">
         <v>41</v>
       </c>
@@ -8844,16 +9516,16 @@
       <c r="AJ145" s="22"/>
     </row>
     <row r="146" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A146" s="79"/>
-      <c r="B146" s="60"/>
-      <c r="C146" s="58"/>
-      <c r="D146" s="58" t="s">
+      <c r="A146" s="87"/>
+      <c r="B146" s="51"/>
+      <c r="C146" s="49"/>
+      <c r="D146" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="E146" s="57" t="s">
+      <c r="E146" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="F146" s="57"/>
+      <c r="F146" s="48"/>
       <c r="G146" s="7">
         <v>42</v>
       </c>
@@ -8888,16 +9560,16 @@
       <c r="AJ146" s="22"/>
     </row>
     <row r="147" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A147" s="79"/>
-      <c r="B147" s="60"/>
-      <c r="C147" s="58"/>
-      <c r="D147" s="58" t="s">
+      <c r="A147" s="87"/>
+      <c r="B147" s="51"/>
+      <c r="C147" s="49"/>
+      <c r="D147" s="49" t="s">
         <v>218</v>
       </c>
-      <c r="E147" s="57" t="s">
+      <c r="E147" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="F147" s="57"/>
+      <c r="F147" s="48"/>
       <c r="G147" s="7">
         <v>43</v>
       </c>
@@ -8932,16 +9604,16 @@
       <c r="AJ147" s="22"/>
     </row>
     <row r="148" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A148" s="79"/>
-      <c r="B148" s="60"/>
-      <c r="C148" s="58"/>
-      <c r="D148" s="58" t="s">
+      <c r="A148" s="87"/>
+      <c r="B148" s="51"/>
+      <c r="C148" s="49"/>
+      <c r="D148" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="E148" s="57" t="s">
+      <c r="E148" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="F148" s="57" t="s">
+      <c r="F148" s="48" t="s">
         <v>220</v>
       </c>
       <c r="G148" s="7">
@@ -8978,16 +9650,16 @@
       <c r="AJ148" s="22"/>
     </row>
     <row r="149" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A149" s="79"/>
-      <c r="B149" s="60"/>
-      <c r="C149" s="58"/>
-      <c r="D149" s="58" t="s">
+      <c r="A149" s="87"/>
+      <c r="B149" s="51"/>
+      <c r="C149" s="49"/>
+      <c r="D149" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="E149" s="57" t="s">
+      <c r="E149" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="F149" s="57"/>
+      <c r="F149" s="48"/>
       <c r="G149" s="7">
         <v>45</v>
       </c>
@@ -9022,16 +9694,16 @@
       <c r="AJ149" s="22"/>
     </row>
     <row r="150" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A150" s="79"/>
-      <c r="B150" s="60"/>
-      <c r="C150" s="58"/>
-      <c r="D150" s="58" t="s">
+      <c r="A150" s="87"/>
+      <c r="B150" s="51"/>
+      <c r="C150" s="49"/>
+      <c r="D150" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="E150" s="57" t="s">
+      <c r="E150" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="F150" s="57" t="s">
+      <c r="F150" s="48" t="s">
         <v>220</v>
       </c>
       <c r="G150" s="7">
@@ -9068,16 +9740,16 @@
       <c r="AJ150" s="22"/>
     </row>
     <row r="151" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A151" s="79"/>
-      <c r="B151" s="60"/>
-      <c r="C151" s="58"/>
-      <c r="D151" s="58" t="s">
+      <c r="A151" s="87"/>
+      <c r="B151" s="51"/>
+      <c r="C151" s="49"/>
+      <c r="D151" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="E151" s="57" t="s">
+      <c r="E151" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="F151" s="57" t="s">
+      <c r="F151" s="48" t="s">
         <v>223</v>
       </c>
       <c r="G151" s="7">
@@ -9114,16 +9786,16 @@
       <c r="AJ151" s="22"/>
     </row>
     <row r="152" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A152" s="79"/>
-      <c r="B152" s="60"/>
-      <c r="C152" s="58"/>
-      <c r="D152" s="58" t="s">
+      <c r="A152" s="87"/>
+      <c r="B152" s="51"/>
+      <c r="C152" s="49"/>
+      <c r="D152" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="E152" s="57" t="s">
+      <c r="E152" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="F152" s="57" t="s">
+      <c r="F152" s="48" t="s">
         <v>226</v>
       </c>
       <c r="G152" s="7">
@@ -9160,16 +9832,16 @@
       <c r="AJ152" s="22"/>
     </row>
     <row r="153" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A153" s="79"/>
-      <c r="B153" s="60"/>
-      <c r="C153" s="58"/>
-      <c r="D153" s="58" t="s">
+      <c r="A153" s="87"/>
+      <c r="B153" s="51"/>
+      <c r="C153" s="49"/>
+      <c r="D153" s="49" t="s">
         <v>225</v>
       </c>
-      <c r="E153" s="57" t="s">
+      <c r="E153" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="F153" s="57" t="s">
+      <c r="F153" s="48" t="s">
         <v>226</v>
       </c>
       <c r="G153" s="7">
@@ -9206,14 +9878,14 @@
       <c r="AJ153" s="22"/>
     </row>
     <row r="154" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A154" s="79"/>
-      <c r="B154" s="60"/>
-      <c r="C154" s="58"/>
-      <c r="D154" s="58" t="s">
+      <c r="A154" s="87"/>
+      <c r="B154" s="51"/>
+      <c r="C154" s="49"/>
+      <c r="D154" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="E154" s="57"/>
-      <c r="F154" s="57" t="s">
+      <c r="E154" s="48"/>
+      <c r="F154" s="48" t="s">
         <v>226</v>
       </c>
       <c r="G154" s="7">
@@ -9250,14 +9922,14 @@
       <c r="AJ154" s="22"/>
     </row>
     <row r="155" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A155" s="79"/>
-      <c r="B155" s="60"/>
-      <c r="C155" s="58"/>
-      <c r="D155" s="58" t="s">
+      <c r="A155" s="87"/>
+      <c r="B155" s="51"/>
+      <c r="C155" s="49"/>
+      <c r="D155" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="E155" s="57"/>
-      <c r="F155" s="57" t="s">
+      <c r="E155" s="48"/>
+      <c r="F155" s="48" t="s">
         <v>229</v>
       </c>
       <c r="G155" s="7">
@@ -9294,14 +9966,14 @@
       <c r="AJ155" s="22"/>
     </row>
     <row r="156" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A156" s="79"/>
-      <c r="B156" s="60"/>
-      <c r="C156" s="58"/>
-      <c r="D156" s="58" t="s">
+      <c r="A156" s="87"/>
+      <c r="B156" s="51"/>
+      <c r="C156" s="49"/>
+      <c r="D156" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="E156" s="57"/>
-      <c r="F156" s="57" t="s">
+      <c r="E156" s="48"/>
+      <c r="F156" s="48" t="s">
         <v>231</v>
       </c>
       <c r="G156" s="7">
@@ -9338,14 +10010,14 @@
       <c r="AJ156" s="22"/>
     </row>
     <row r="157" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A157" s="79"/>
-      <c r="B157" s="60"/>
-      <c r="C157" s="58"/>
-      <c r="D157" s="58" t="s">
+      <c r="A157" s="87"/>
+      <c r="B157" s="51"/>
+      <c r="C157" s="49"/>
+      <c r="D157" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="E157" s="57"/>
-      <c r="F157" s="57" t="s">
+      <c r="E157" s="48"/>
+      <c r="F157" s="48" t="s">
         <v>231</v>
       </c>
       <c r="G157" s="7">
@@ -9382,14 +10054,14 @@
       <c r="AJ157" s="22"/>
     </row>
     <row r="158" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A158" s="79"/>
-      <c r="B158" s="60"/>
-      <c r="C158" s="58"/>
-      <c r="D158" s="58" t="s">
+      <c r="A158" s="87"/>
+      <c r="B158" s="51"/>
+      <c r="C158" s="49"/>
+      <c r="D158" s="49" t="s">
         <v>233</v>
       </c>
-      <c r="E158" s="57"/>
-      <c r="F158" s="57" t="s">
+      <c r="E158" s="48"/>
+      <c r="F158" s="48" t="s">
         <v>220</v>
       </c>
       <c r="G158" s="7">
@@ -9426,16 +10098,16 @@
       <c r="AJ158" s="22"/>
     </row>
     <row r="159" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A159" s="79"/>
-      <c r="B159" s="60"/>
-      <c r="C159" s="58"/>
-      <c r="D159" s="58" t="s">
+      <c r="A159" s="87"/>
+      <c r="B159" s="51"/>
+      <c r="C159" s="49"/>
+      <c r="D159" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E159" s="57" t="s">
+      <c r="E159" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="F159" s="57"/>
+      <c r="F159" s="48"/>
       <c r="G159" s="7">
         <v>56</v>
       </c>
@@ -9470,16 +10142,16 @@
       <c r="AJ159" s="22"/>
     </row>
     <row r="160" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A160" s="79"/>
-      <c r="B160" s="60"/>
-      <c r="C160" s="58"/>
-      <c r="D160" s="58" t="s">
+      <c r="A160" s="87"/>
+      <c r="B160" s="51"/>
+      <c r="C160" s="49"/>
+      <c r="D160" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="E160" s="57" t="s">
+      <c r="E160" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="F160" s="57"/>
+      <c r="F160" s="48"/>
       <c r="G160" s="7">
         <v>57</v>
       </c>
@@ -9514,16 +10186,16 @@
       <c r="AJ160" s="22"/>
     </row>
     <row r="161" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A161" s="79"/>
-      <c r="B161" s="60"/>
-      <c r="C161" s="58"/>
-      <c r="D161" s="58" t="s">
+      <c r="A161" s="87"/>
+      <c r="B161" s="51"/>
+      <c r="C161" s="49"/>
+      <c r="D161" s="49" t="s">
         <v>238</v>
       </c>
-      <c r="E161" s="57" t="s">
+      <c r="E161" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="F161" s="57"/>
+      <c r="F161" s="48"/>
       <c r="G161" s="7">
         <v>69</v>
       </c>
@@ -9558,16 +10230,16 @@
       <c r="AJ161" s="22"/>
     </row>
     <row r="162" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A162" s="79"/>
-      <c r="B162" s="60"/>
-      <c r="C162" s="58"/>
-      <c r="D162" s="58" t="s">
+      <c r="A162" s="87"/>
+      <c r="B162" s="51"/>
+      <c r="C162" s="49"/>
+      <c r="D162" s="49" t="s">
         <v>246</v>
       </c>
-      <c r="E162" s="57" t="s">
+      <c r="E162" s="48" t="s">
         <v>246</v>
       </c>
-      <c r="F162" s="57" t="s">
+      <c r="F162" s="48" t="s">
         <v>248</v>
       </c>
       <c r="G162" s="7">
@@ -9604,16 +10276,16 @@
       <c r="AJ162" s="22"/>
     </row>
     <row r="163" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A163" s="79"/>
-      <c r="B163" s="60"/>
-      <c r="C163" s="58"/>
-      <c r="D163" s="58" t="s">
+      <c r="A163" s="87"/>
+      <c r="B163" s="51"/>
+      <c r="C163" s="49"/>
+      <c r="D163" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="E163" s="57" t="s">
+      <c r="E163" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="F163" s="57" t="s">
+      <c r="F163" s="48" t="s">
         <v>249</v>
       </c>
       <c r="G163" s="7">
@@ -9650,16 +10322,16 @@
       <c r="AJ163" s="22"/>
     </row>
     <row r="164" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A164" s="79"/>
-      <c r="B164" s="60"/>
-      <c r="C164" s="58"/>
-      <c r="D164" s="58" t="s">
+      <c r="A164" s="87"/>
+      <c r="B164" s="51"/>
+      <c r="C164" s="49"/>
+      <c r="D164" s="49" t="s">
         <v>247</v>
       </c>
-      <c r="E164" s="57" t="s">
+      <c r="E164" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="F164" s="57" t="s">
+      <c r="F164" s="48" t="s">
         <v>250</v>
       </c>
       <c r="G164" s="7">
@@ -9696,12 +10368,12 @@
       <c r="AJ164" s="22"/>
     </row>
     <row r="165" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A165" s="79"/>
-      <c r="B165" s="60"/>
-      <c r="C165" s="58"/>
-      <c r="D165" s="58"/>
-      <c r="E165" s="57"/>
-      <c r="F165" s="57"/>
+      <c r="A165" s="87"/>
+      <c r="B165" s="51"/>
+      <c r="C165" s="49"/>
+      <c r="D165" s="49"/>
+      <c r="E165" s="48"/>
+      <c r="F165" s="48"/>
       <c r="G165" s="7"/>
       <c r="H165" s="22"/>
       <c r="I165" s="22"/>
@@ -9734,14 +10406,14 @@
       <c r="AJ165" s="22"/>
     </row>
     <row r="166" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A166" s="79"/>
-      <c r="B166" s="60"/>
-      <c r="C166" s="58"/>
-      <c r="D166" s="58" t="s">
+      <c r="A166" s="87"/>
+      <c r="B166" s="51"/>
+      <c r="C166" s="49"/>
+      <c r="D166" s="49" t="s">
         <v>269</v>
       </c>
-      <c r="E166" s="57"/>
-      <c r="F166" s="57"/>
+      <c r="E166" s="48"/>
+      <c r="F166" s="48"/>
       <c r="G166" s="7">
         <v>127</v>
       </c>
@@ -9776,12 +10448,12 @@
       <c r="AJ166" s="22"/>
     </row>
     <row r="167" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A167" s="56"/>
-      <c r="B167" s="60"/>
-      <c r="C167" s="58"/>
-      <c r="D167" s="58"/>
-      <c r="E167" s="57"/>
-      <c r="F167" s="57"/>
+      <c r="A167" s="88"/>
+      <c r="B167" s="51"/>
+      <c r="C167" s="49"/>
+      <c r="D167" s="49"/>
+      <c r="E167" s="48"/>
+      <c r="F167" s="48"/>
       <c r="G167" s="7"/>
       <c r="H167" s="22"/>
       <c r="I167" s="22"/>
@@ -9814,12 +10486,12 @@
       <c r="AJ167" s="22"/>
     </row>
     <row r="168" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A168" s="83"/>
-      <c r="B168" s="84"/>
-      <c r="C168" s="85"/>
-      <c r="D168" s="85"/>
-      <c r="E168" s="86"/>
-      <c r="F168" s="87"/>
+      <c r="A168" s="63"/>
+      <c r="B168" s="64"/>
+      <c r="C168" s="65"/>
+      <c r="D168" s="65"/>
+      <c r="E168" s="66"/>
+      <c r="F168" s="67"/>
       <c r="G168" s="7"/>
       <c r="H168" s="22"/>
       <c r="I168" s="22"/>
@@ -9852,18 +10524,18 @@
       <c r="AJ168" s="22"/>
     </row>
     <row r="169" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A169" s="61" t="s">
+      <c r="A169" s="69" t="s">
         <v>243</v>
       </c>
-      <c r="B169" s="60"/>
-      <c r="C169" s="58"/>
-      <c r="D169" s="58" t="s">
+      <c r="B169" s="51"/>
+      <c r="C169" s="49"/>
+      <c r="D169" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="E169" s="57" t="s">
+      <c r="E169" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="F169" s="57" t="s">
+      <c r="F169" s="48" t="s">
         <v>196</v>
       </c>
       <c r="G169" s="7">
@@ -9900,16 +10572,16 @@
       <c r="AJ169" s="22"/>
     </row>
     <row r="170" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A170" s="61"/>
-      <c r="B170" s="60"/>
-      <c r="C170" s="58"/>
-      <c r="D170" s="58" t="s">
+      <c r="A170" s="69"/>
+      <c r="B170" s="51"/>
+      <c r="C170" s="49"/>
+      <c r="D170" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="E170" s="57" t="s">
+      <c r="E170" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="F170" s="57" t="s">
+      <c r="F170" s="48" t="s">
         <v>197</v>
       </c>
       <c r="G170" s="7">
@@ -9946,16 +10618,16 @@
       <c r="AJ170" s="22"/>
     </row>
     <row r="171" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A171" s="61"/>
-      <c r="B171" s="60"/>
-      <c r="C171" s="58"/>
-      <c r="D171" s="58" t="s">
+      <c r="A171" s="69"/>
+      <c r="B171" s="51"/>
+      <c r="C171" s="49"/>
+      <c r="D171" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="E171" s="57" t="s">
+      <c r="E171" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="F171" s="57" t="s">
+      <c r="F171" s="48" t="s">
         <v>198</v>
       </c>
       <c r="G171" s="7">
@@ -9992,16 +10664,16 @@
       <c r="AJ171" s="22"/>
     </row>
     <row r="172" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A172" s="61"/>
-      <c r="B172" s="60"/>
-      <c r="C172" s="58"/>
-      <c r="D172" s="58" t="s">
+      <c r="A172" s="69"/>
+      <c r="B172" s="51"/>
+      <c r="C172" s="49"/>
+      <c r="D172" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="E172" s="57" t="s">
+      <c r="E172" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="F172" s="57" t="s">
+      <c r="F172" s="48" t="s">
         <v>201</v>
       </c>
       <c r="G172" s="7">
@@ -10038,12 +10710,12 @@
       <c r="AJ172" s="22"/>
     </row>
     <row r="173" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A173" s="50"/>
-      <c r="B173" s="54"/>
-      <c r="C173" s="52"/>
-      <c r="D173" s="52"/>
-      <c r="E173" s="51"/>
-      <c r="F173" s="55"/>
+      <c r="A173" s="42"/>
+      <c r="B173" s="46"/>
+      <c r="C173" s="44"/>
+      <c r="D173" s="44"/>
+      <c r="E173" s="43"/>
+      <c r="F173" s="47"/>
       <c r="G173" s="4"/>
       <c r="H173" s="22"/>
       <c r="I173" s="22"/>
@@ -10076,12 +10748,12 @@
       <c r="AJ173" s="22"/>
     </row>
     <row r="174" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A174" s="53"/>
-      <c r="B174" s="54"/>
-      <c r="C174" s="52"/>
-      <c r="D174" s="52"/>
-      <c r="E174" s="51"/>
-      <c r="F174" s="51"/>
+      <c r="A174" s="45"/>
+      <c r="B174" s="46"/>
+      <c r="C174" s="44"/>
+      <c r="D174" s="44"/>
+      <c r="E174" s="43"/>
+      <c r="F174" s="43"/>
       <c r="G174" s="4"/>
       <c r="H174" s="22"/>
       <c r="I174" s="22"/>
@@ -10114,12 +10786,12 @@
       <c r="AJ174" s="22"/>
     </row>
     <row r="175" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A175" s="53"/>
-      <c r="B175" s="54"/>
-      <c r="C175" s="52"/>
-      <c r="D175" s="52"/>
-      <c r="E175" s="51"/>
-      <c r="F175" s="51"/>
+      <c r="A175" s="45"/>
+      <c r="B175" s="46"/>
+      <c r="C175" s="44"/>
+      <c r="D175" s="44"/>
+      <c r="E175" s="43"/>
+      <c r="F175" s="43"/>
       <c r="G175" s="4"/>
       <c r="H175" s="22"/>
       <c r="I175" s="22"/>
@@ -10152,12 +10824,12 @@
       <c r="AJ175" s="22"/>
     </row>
     <row r="176" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A176" s="53"/>
-      <c r="B176" s="54"/>
-      <c r="C176" s="52"/>
-      <c r="D176" s="52"/>
-      <c r="E176" s="51"/>
-      <c r="F176" s="51"/>
+      <c r="A176" s="45"/>
+      <c r="B176" s="46"/>
+      <c r="C176" s="44"/>
+      <c r="D176" s="44"/>
+      <c r="E176" s="43"/>
+      <c r="F176" s="43"/>
       <c r="G176" s="4"/>
       <c r="H176" s="22"/>
       <c r="I176" s="22"/>
@@ -10190,12 +10862,12 @@
       <c r="AJ176" s="22"/>
     </row>
     <row r="177" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A177" s="53"/>
-      <c r="B177" s="54"/>
-      <c r="C177" s="52"/>
-      <c r="D177" s="52"/>
-      <c r="E177" s="51"/>
-      <c r="F177" s="51"/>
+      <c r="A177" s="45"/>
+      <c r="B177" s="46"/>
+      <c r="C177" s="44"/>
+      <c r="D177" s="44"/>
+      <c r="E177" s="43"/>
+      <c r="F177" s="43"/>
       <c r="G177" s="4"/>
       <c r="H177" s="22"/>
       <c r="I177" s="22"/>
@@ -10228,12 +10900,12 @@
       <c r="AJ177" s="22"/>
     </row>
     <row r="178" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A178" s="53"/>
-      <c r="B178" s="54"/>
-      <c r="C178" s="52"/>
-      <c r="D178" s="52"/>
-      <c r="E178" s="51"/>
-      <c r="F178" s="51"/>
+      <c r="A178" s="45"/>
+      <c r="B178" s="46"/>
+      <c r="C178" s="44"/>
+      <c r="D178" s="44"/>
+      <c r="E178" s="43"/>
+      <c r="F178" s="43"/>
       <c r="G178" s="4"/>
       <c r="H178" s="22"/>
       <c r="I178" s="22"/>
@@ -10266,12 +10938,12 @@
       <c r="AJ178" s="22"/>
     </row>
     <row r="179" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A179" s="53"/>
-      <c r="B179" s="54"/>
-      <c r="C179" s="52"/>
-      <c r="D179" s="52"/>
-      <c r="E179" s="51"/>
-      <c r="F179" s="51"/>
+      <c r="A179" s="45"/>
+      <c r="B179" s="46"/>
+      <c r="C179" s="44"/>
+      <c r="D179" s="44"/>
+      <c r="E179" s="43"/>
+      <c r="F179" s="43"/>
       <c r="G179" s="4"/>
       <c r="H179" s="22"/>
       <c r="I179" s="22"/>
@@ -10304,12 +10976,12 @@
       <c r="AJ179" s="22"/>
     </row>
     <row r="180" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A180" s="53"/>
-      <c r="B180" s="54"/>
-      <c r="C180" s="52"/>
-      <c r="D180" s="52"/>
-      <c r="E180" s="51"/>
-      <c r="F180" s="51"/>
+      <c r="A180" s="45"/>
+      <c r="B180" s="46"/>
+      <c r="C180" s="44"/>
+      <c r="D180" s="44"/>
+      <c r="E180" s="43"/>
+      <c r="F180" s="43"/>
       <c r="G180" s="4"/>
       <c r="H180" s="22"/>
       <c r="I180" s="22"/>
@@ -10342,12 +11014,12 @@
       <c r="AJ180" s="22"/>
     </row>
     <row r="181" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A181" s="53"/>
-      <c r="B181" s="54"/>
-      <c r="C181" s="52"/>
-      <c r="D181" s="52"/>
-      <c r="E181" s="51"/>
-      <c r="F181" s="51"/>
+      <c r="A181" s="45"/>
+      <c r="B181" s="46"/>
+      <c r="C181" s="44"/>
+      <c r="D181" s="44"/>
+      <c r="E181" s="43"/>
+      <c r="F181" s="43"/>
       <c r="G181" s="4"/>
       <c r="H181" s="22"/>
       <c r="I181" s="22"/>
@@ -10380,12 +11052,12 @@
       <c r="AJ181" s="22"/>
     </row>
     <row r="182" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A182" s="53"/>
-      <c r="B182" s="54"/>
-      <c r="C182" s="52"/>
-      <c r="D182" s="52"/>
-      <c r="E182" s="51"/>
-      <c r="F182" s="51"/>
+      <c r="A182" s="45"/>
+      <c r="B182" s="46"/>
+      <c r="C182" s="44"/>
+      <c r="D182" s="44"/>
+      <c r="E182" s="43"/>
+      <c r="F182" s="43"/>
       <c r="G182" s="4"/>
       <c r="H182" s="22"/>
       <c r="I182" s="22"/>
@@ -10418,12 +11090,12 @@
       <c r="AJ182" s="22"/>
     </row>
     <row r="183" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A183" s="53"/>
-      <c r="B183" s="54"/>
-      <c r="C183" s="52"/>
-      <c r="D183" s="52"/>
-      <c r="E183" s="51"/>
-      <c r="F183" s="51"/>
+      <c r="A183" s="45"/>
+      <c r="B183" s="46"/>
+      <c r="C183" s="44"/>
+      <c r="D183" s="44"/>
+      <c r="E183" s="43"/>
+      <c r="F183" s="43"/>
       <c r="G183" s="4"/>
       <c r="H183" s="22"/>
       <c r="I183" s="22"/>
@@ -10456,12 +11128,12 @@
       <c r="AJ183" s="22"/>
     </row>
     <row r="184" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A184" s="53"/>
-      <c r="B184" s="54"/>
-      <c r="C184" s="52"/>
-      <c r="D184" s="52"/>
-      <c r="E184" s="51"/>
-      <c r="F184" s="51"/>
+      <c r="A184" s="45"/>
+      <c r="B184" s="46"/>
+      <c r="C184" s="44"/>
+      <c r="D184" s="44"/>
+      <c r="E184" s="43"/>
+      <c r="F184" s="43"/>
       <c r="G184" s="4"/>
       <c r="H184" s="22"/>
       <c r="I184" s="22"/>
@@ -10494,12 +11166,12 @@
       <c r="AJ184" s="22"/>
     </row>
     <row r="185" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A185" s="53"/>
-      <c r="B185" s="54"/>
-      <c r="C185" s="52"/>
-      <c r="D185" s="52"/>
-      <c r="E185" s="51"/>
-      <c r="F185" s="51"/>
+      <c r="A185" s="45"/>
+      <c r="B185" s="46"/>
+      <c r="C185" s="44"/>
+      <c r="D185" s="44"/>
+      <c r="E185" s="43"/>
+      <c r="F185" s="43"/>
       <c r="G185" s="4"/>
       <c r="H185" s="22"/>
       <c r="I185" s="22"/>
@@ -10532,12 +11204,12 @@
       <c r="AJ185" s="22"/>
     </row>
     <row r="186" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A186" s="53"/>
-      <c r="B186" s="54"/>
-      <c r="C186" s="52"/>
-      <c r="D186" s="52"/>
-      <c r="E186" s="51"/>
-      <c r="F186" s="51"/>
+      <c r="A186" s="45"/>
+      <c r="B186" s="46"/>
+      <c r="C186" s="44"/>
+      <c r="D186" s="44"/>
+      <c r="E186" s="43"/>
+      <c r="F186" s="43"/>
       <c r="G186" s="4"/>
       <c r="H186" s="22"/>
       <c r="I186" s="22"/>
@@ -10570,12 +11242,12 @@
       <c r="AJ186" s="22"/>
     </row>
     <row r="187" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A187" s="53"/>
-      <c r="B187" s="54"/>
-      <c r="C187" s="52"/>
-      <c r="D187" s="52"/>
-      <c r="E187" s="51"/>
-      <c r="F187" s="51"/>
+      <c r="A187" s="45"/>
+      <c r="B187" s="46"/>
+      <c r="C187" s="44"/>
+      <c r="D187" s="44"/>
+      <c r="E187" s="43"/>
+      <c r="F187" s="43"/>
       <c r="G187" s="4"/>
       <c r="H187" s="22"/>
       <c r="I187" s="22"/>
@@ -10608,12 +11280,12 @@
       <c r="AJ187" s="22"/>
     </row>
     <row r="188" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A188" s="53"/>
-      <c r="B188" s="54"/>
-      <c r="C188" s="52"/>
-      <c r="D188" s="52"/>
-      <c r="E188" s="51"/>
-      <c r="F188" s="51"/>
+      <c r="A188" s="45"/>
+      <c r="B188" s="46"/>
+      <c r="C188" s="44"/>
+      <c r="D188" s="44"/>
+      <c r="E188" s="43"/>
+      <c r="F188" s="43"/>
       <c r="G188" s="4"/>
       <c r="H188" s="22"/>
       <c r="I188" s="22"/>
@@ -10646,12 +11318,12 @@
       <c r="AJ188" s="22"/>
     </row>
     <row r="189" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A189" s="53"/>
-      <c r="B189" s="54"/>
-      <c r="C189" s="52"/>
-      <c r="D189" s="52"/>
-      <c r="E189" s="51"/>
-      <c r="F189" s="51"/>
+      <c r="A189" s="45"/>
+      <c r="B189" s="46"/>
+      <c r="C189" s="44"/>
+      <c r="D189" s="44"/>
+      <c r="E189" s="43"/>
+      <c r="F189" s="43"/>
       <c r="G189" s="4"/>
       <c r="H189" s="22"/>
       <c r="I189" s="22"/>
@@ -10684,12 +11356,12 @@
       <c r="AJ189" s="22"/>
     </row>
     <row r="190" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A190" s="53"/>
-      <c r="B190" s="54"/>
-      <c r="C190" s="52"/>
-      <c r="D190" s="52"/>
-      <c r="E190" s="51"/>
-      <c r="F190" s="51"/>
+      <c r="A190" s="45"/>
+      <c r="B190" s="46"/>
+      <c r="C190" s="44"/>
+      <c r="D190" s="44"/>
+      <c r="E190" s="43"/>
+      <c r="F190" s="43"/>
       <c r="G190" s="4"/>
       <c r="H190" s="22"/>
       <c r="I190" s="22"/>
@@ -10722,12 +11394,12 @@
       <c r="AJ190" s="22"/>
     </row>
     <row r="191" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A191" s="53"/>
-      <c r="B191" s="54"/>
-      <c r="C191" s="52"/>
-      <c r="D191" s="52"/>
-      <c r="E191" s="51"/>
-      <c r="F191" s="51"/>
+      <c r="A191" s="45"/>
+      <c r="B191" s="46"/>
+      <c r="C191" s="44"/>
+      <c r="D191" s="44"/>
+      <c r="E191" s="43"/>
+      <c r="F191" s="43"/>
       <c r="G191" s="4"/>
       <c r="H191" s="22"/>
       <c r="I191" s="22"/>
@@ -10760,12 +11432,12 @@
       <c r="AJ191" s="22"/>
     </row>
     <row r="192" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A192" s="53"/>
-      <c r="B192" s="54"/>
-      <c r="C192" s="52"/>
-      <c r="D192" s="52"/>
-      <c r="E192" s="51"/>
-      <c r="F192" s="51"/>
+      <c r="A192" s="45"/>
+      <c r="B192" s="46"/>
+      <c r="C192" s="44"/>
+      <c r="D192" s="44"/>
+      <c r="E192" s="43"/>
+      <c r="F192" s="43"/>
       <c r="G192" s="4"/>
       <c r="H192" s="22"/>
       <c r="I192" s="22"/>
@@ -10798,12 +11470,12 @@
       <c r="AJ192" s="22"/>
     </row>
     <row r="193" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A193" s="53"/>
-      <c r="B193" s="54"/>
-      <c r="C193" s="52"/>
-      <c r="D193" s="52"/>
-      <c r="E193" s="51"/>
-      <c r="F193" s="51"/>
+      <c r="A193" s="45"/>
+      <c r="B193" s="46"/>
+      <c r="C193" s="44"/>
+      <c r="D193" s="44"/>
+      <c r="E193" s="43"/>
+      <c r="F193" s="43"/>
       <c r="G193" s="4"/>
       <c r="H193" s="22"/>
       <c r="I193" s="22"/>
@@ -10836,12 +11508,12 @@
       <c r="AJ193" s="22"/>
     </row>
     <row r="194" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A194" s="53"/>
-      <c r="B194" s="54"/>
-      <c r="C194" s="52"/>
-      <c r="D194" s="52"/>
-      <c r="E194" s="51"/>
-      <c r="F194" s="51"/>
+      <c r="A194" s="45"/>
+      <c r="B194" s="46"/>
+      <c r="C194" s="44"/>
+      <c r="D194" s="44"/>
+      <c r="E194" s="43"/>
+      <c r="F194" s="43"/>
       <c r="G194" s="4"/>
       <c r="H194" s="22"/>
       <c r="I194" s="22"/>
@@ -16086,28 +16758,1838 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="A82:A87"/>
     <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A113:A114"/>
     <mergeCell ref="A104:A108"/>
-    <mergeCell ref="A124:A167"/>
     <mergeCell ref="A98:A102"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="A61:A65"/>
     <mergeCell ref="A89:A96"/>
     <mergeCell ref="A40:A45"/>
     <mergeCell ref="A67:A80"/>
+    <mergeCell ref="A169:A172"/>
+    <mergeCell ref="A27:A38"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A14:A20"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A52:A57"/>
-    <mergeCell ref="A82:A87"/>
-    <mergeCell ref="A169:A172"/>
-    <mergeCell ref="A27:A38"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A124:A167"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="89" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="89" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="89" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="89" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="89" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="89" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="89" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="89" t="s">
+        <v>466</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>467</v>
+      </c>
+      <c r="C1" s="89" t="s">
+        <v>496</v>
+      </c>
+      <c r="D1" s="89" t="s">
+        <v>468</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>496</v>
+      </c>
+      <c r="F1" s="89" t="s">
+        <v>469</v>
+      </c>
+      <c r="G1" s="89" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="89" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="89" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="89" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="89" t="s">
+        <v>403</v>
+      </c>
+      <c r="F3" s="89" t="s">
+        <v>449</v>
+      </c>
+      <c r="G3" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="89" t="s">
+        <v>404</v>
+      </c>
+      <c r="D4" s="89" t="s">
+        <v>405</v>
+      </c>
+      <c r="F4" s="89" t="s">
+        <v>450</v>
+      </c>
+      <c r="G4" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="89" t="s">
+        <v>406</v>
+      </c>
+      <c r="D5" s="89" t="s">
+        <v>407</v>
+      </c>
+      <c r="F5" s="89" t="s">
+        <v>448</v>
+      </c>
+      <c r="G5" s="89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="89" t="s">
+        <v>408</v>
+      </c>
+      <c r="D6" s="89" t="s">
+        <v>409</v>
+      </c>
+      <c r="F6" s="89" t="s">
+        <v>451</v>
+      </c>
+      <c r="G6" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="89" t="s">
+        <v>410</v>
+      </c>
+      <c r="D7" s="89" t="s">
+        <v>411</v>
+      </c>
+      <c r="F7" s="89" t="s">
+        <v>452</v>
+      </c>
+      <c r="G7" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="89" t="s">
+        <v>291</v>
+      </c>
+      <c r="B8" s="89" t="s">
+        <v>412</v>
+      </c>
+      <c r="D8" s="89" t="s">
+        <v>413</v>
+      </c>
+      <c r="F8" s="89" t="s">
+        <v>189</v>
+      </c>
+      <c r="G8" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="89" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="89" t="s">
+        <v>414</v>
+      </c>
+      <c r="D9" s="89" t="s">
+        <v>415</v>
+      </c>
+      <c r="F9" s="89" t="s">
+        <v>453</v>
+      </c>
+      <c r="G9" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="89" t="s">
+        <v>416</v>
+      </c>
+      <c r="D10" s="89" t="s">
+        <v>378</v>
+      </c>
+      <c r="F10" s="89" t="s">
+        <v>454</v>
+      </c>
+      <c r="G10" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="89" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="89" t="s">
+        <v>417</v>
+      </c>
+      <c r="D11" s="89" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="89" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="89" t="s">
+        <v>418</v>
+      </c>
+      <c r="D12" s="89" t="s">
+        <v>419</v>
+      </c>
+      <c r="F12" s="89" t="s">
+        <v>455</v>
+      </c>
+      <c r="G12" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="89" t="s">
+        <v>420</v>
+      </c>
+      <c r="D13" s="89" t="s">
+        <v>421</v>
+      </c>
+      <c r="F13" s="89" t="s">
+        <v>456</v>
+      </c>
+      <c r="G13" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="89" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="89" t="s">
+        <v>422</v>
+      </c>
+      <c r="D14" s="89" t="s">
+        <v>392</v>
+      </c>
+      <c r="F14" s="89" t="s">
+        <v>457</v>
+      </c>
+      <c r="G14" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="89" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="89" t="s">
+        <v>423</v>
+      </c>
+      <c r="D15" s="89" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="89" t="s">
+        <v>424</v>
+      </c>
+      <c r="D16" s="89" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="89" t="s">
+        <v>426</v>
+      </c>
+      <c r="D17" s="89" t="s">
+        <v>427</v>
+      </c>
+      <c r="F17" s="89" t="s">
+        <v>458</v>
+      </c>
+      <c r="G17" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="89" t="s">
+        <v>428</v>
+      </c>
+      <c r="D18" s="89" t="s">
+        <v>429</v>
+      </c>
+      <c r="F18" s="89" t="s">
+        <v>459</v>
+      </c>
+      <c r="G18" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="89" t="s">
+        <v>376</v>
+      </c>
+      <c r="B19" s="89" t="s">
+        <v>430</v>
+      </c>
+      <c r="D19" s="89" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="89" t="s">
+        <v>240</v>
+      </c>
+      <c r="B20" s="89" t="s">
+        <v>432</v>
+      </c>
+      <c r="D20" s="89" t="s">
+        <v>433</v>
+      </c>
+      <c r="F20" s="89" t="s">
+        <v>460</v>
+      </c>
+      <c r="G20" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="89" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="89" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="89" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="89" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="89" t="s">
+        <v>434</v>
+      </c>
+      <c r="F24" s="89" t="s">
+        <v>461</v>
+      </c>
+      <c r="G24" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="89" t="s">
+        <v>435</v>
+      </c>
+      <c r="F25" s="89" t="s">
+        <v>462</v>
+      </c>
+      <c r="G25" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="89" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="89" t="s">
+        <v>436</v>
+      </c>
+      <c r="F26" s="89" t="s">
+        <v>463</v>
+      </c>
+      <c r="G26" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="89" t="s">
+        <v>338</v>
+      </c>
+      <c r="D27" s="89" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="89" t="s">
+        <v>339</v>
+      </c>
+      <c r="D28" s="89" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="89" t="s">
+        <v>439</v>
+      </c>
+      <c r="D29" s="89" t="s">
+        <v>433</v>
+      </c>
+      <c r="F29" s="89" t="s">
+        <v>464</v>
+      </c>
+      <c r="G29" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="89" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="89" t="s">
+        <v>440</v>
+      </c>
+      <c r="D30" s="89" t="s">
+        <v>441</v>
+      </c>
+      <c r="F30" s="89" t="s">
+        <v>465</v>
+      </c>
+      <c r="G30" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="89" t="s">
+        <v>263</v>
+      </c>
+      <c r="B31" s="89" t="s">
+        <v>442</v>
+      </c>
+      <c r="D31" s="89" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="89" t="s">
+        <v>444</v>
+      </c>
+      <c r="B32" s="89" t="s">
+        <v>445</v>
+      </c>
+      <c r="D32" s="89" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="89" t="s">
+        <v>446</v>
+      </c>
+      <c r="B33" s="89" t="s">
+        <v>447</v>
+      </c>
+      <c r="D33" s="89" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="89" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="91" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="91" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="91" t="s">
+        <v>529</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="89" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="89" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="89" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="89" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="89" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="89" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="89" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="89" t="s">
+        <v>466</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>467</v>
+      </c>
+      <c r="C1" s="89" t="s">
+        <v>496</v>
+      </c>
+      <c r="D1" s="89" t="s">
+        <v>468</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>496</v>
+      </c>
+      <c r="F1" s="89" t="s">
+        <v>469</v>
+      </c>
+      <c r="G1" s="89" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="89" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>499</v>
+      </c>
+      <c r="C2" s="89">
+        <v>1</v>
+      </c>
+      <c r="D2" s="89" t="s">
+        <v>509</v>
+      </c>
+      <c r="E2" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="89" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="89" t="s">
+        <v>500</v>
+      </c>
+      <c r="C3" s="89">
+        <v>1</v>
+      </c>
+      <c r="D3" s="89" t="s">
+        <v>510</v>
+      </c>
+      <c r="E3" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="89" t="s">
+        <v>501</v>
+      </c>
+      <c r="C4" s="89">
+        <v>1</v>
+      </c>
+      <c r="D4" s="89" t="s">
+        <v>511</v>
+      </c>
+      <c r="E4" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="89" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="89" t="s">
+        <v>502</v>
+      </c>
+      <c r="C5" s="89">
+        <v>1</v>
+      </c>
+      <c r="D5" s="89" t="s">
+        <v>512</v>
+      </c>
+      <c r="E5" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="89" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="89" t="s">
+        <v>503</v>
+      </c>
+      <c r="C6" s="89">
+        <v>1</v>
+      </c>
+      <c r="D6" s="89" t="s">
+        <v>513</v>
+      </c>
+      <c r="E6" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="89" t="s">
+        <v>504</v>
+      </c>
+      <c r="C7" s="89">
+        <v>1</v>
+      </c>
+      <c r="D7" s="89" t="s">
+        <v>514</v>
+      </c>
+      <c r="E7" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="89" t="s">
+        <v>505</v>
+      </c>
+      <c r="C8" s="89">
+        <v>1</v>
+      </c>
+      <c r="D8" s="89" t="s">
+        <v>398</v>
+      </c>
+      <c r="E8" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="89" t="s">
+        <v>506</v>
+      </c>
+      <c r="C9" s="89">
+        <v>1</v>
+      </c>
+      <c r="D9" s="89" t="s">
+        <v>400</v>
+      </c>
+      <c r="E9" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="89" t="s">
+        <v>507</v>
+      </c>
+      <c r="C10" s="89">
+        <v>1</v>
+      </c>
+      <c r="D10" s="89" t="s">
+        <v>515</v>
+      </c>
+      <c r="E10" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="89" t="s">
+        <v>269</v>
+      </c>
+      <c r="B11" s="89" t="s">
+        <v>508</v>
+      </c>
+      <c r="C11" s="89">
+        <v>1</v>
+      </c>
+      <c r="D11" s="89" t="s">
+        <v>516</v>
+      </c>
+      <c r="E11" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="89" t="s">
+        <v>271</v>
+      </c>
+      <c r="B12" s="89" t="s">
+        <v>270</v>
+      </c>
+      <c r="D12" s="89" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="89" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13" s="89" t="s">
+        <v>272</v>
+      </c>
+      <c r="D13" s="89" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="89" t="s">
+        <v>251</v>
+      </c>
+      <c r="B14" s="89" t="s">
+        <v>470</v>
+      </c>
+      <c r="D14" s="89" t="s">
+        <v>378</v>
+      </c>
+      <c r="F14" s="89" t="s">
+        <v>517</v>
+      </c>
+      <c r="G14" s="89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="89" t="s">
+        <v>255</v>
+      </c>
+      <c r="B15" s="89" t="s">
+        <v>471</v>
+      </c>
+      <c r="D15" s="89" t="s">
+        <v>380</v>
+      </c>
+      <c r="F15" s="89" t="s">
+        <v>518</v>
+      </c>
+      <c r="G15" s="89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="89" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="89" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="89" t="s">
+        <v>384</v>
+      </c>
+      <c r="F17" s="89" t="s">
+        <v>519</v>
+      </c>
+      <c r="G17" s="89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="89" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="89" t="s">
+        <v>472</v>
+      </c>
+      <c r="D18" s="89" t="s">
+        <v>390</v>
+      </c>
+      <c r="F18" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="89" t="s">
+        <v>473</v>
+      </c>
+      <c r="D19" s="89" t="s">
+        <v>392</v>
+      </c>
+      <c r="F19" s="89" t="s">
+        <v>520</v>
+      </c>
+      <c r="G19" s="89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="89" t="s">
+        <v>474</v>
+      </c>
+      <c r="D20" s="89" t="s">
+        <v>394</v>
+      </c>
+      <c r="F20" s="89" t="s">
+        <v>521</v>
+      </c>
+      <c r="G20" s="89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="89" t="s">
+        <v>475</v>
+      </c>
+      <c r="D21" s="89" t="s">
+        <v>396</v>
+      </c>
+      <c r="F21" s="89" t="s">
+        <v>522</v>
+      </c>
+      <c r="G21" s="89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="89" t="s">
+        <v>256</v>
+      </c>
+      <c r="B22" s="89" t="s">
+        <v>476</v>
+      </c>
+      <c r="D22" s="89" t="s">
+        <v>442</v>
+      </c>
+      <c r="F22" s="89" t="s">
+        <v>523</v>
+      </c>
+      <c r="G22" s="89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="89" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" s="89" t="s">
+        <v>477</v>
+      </c>
+      <c r="D23" s="89" t="s">
+        <v>445</v>
+      </c>
+      <c r="F23" s="89" t="s">
+        <v>524</v>
+      </c>
+      <c r="G23" s="89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" s="89" t="s">
+        <v>478</v>
+      </c>
+      <c r="D24" s="89" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="89" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="89" t="s">
+        <v>479</v>
+      </c>
+      <c r="D25" s="89" t="s">
+        <v>447</v>
+      </c>
+      <c r="F25" s="89" t="s">
+        <v>525</v>
+      </c>
+      <c r="G25" s="89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="89" t="s">
+        <v>277</v>
+      </c>
+      <c r="B26" s="89" t="s">
+        <v>480</v>
+      </c>
+      <c r="D26" s="89" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="89" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="89" t="s">
+        <v>482</v>
+      </c>
+      <c r="D27" s="89" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="89" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="89" t="s">
+        <v>484</v>
+      </c>
+      <c r="D28" s="89" t="s">
+        <v>485</v>
+      </c>
+      <c r="F28" s="89" t="s">
+        <v>526</v>
+      </c>
+      <c r="G28" s="89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="89" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" s="89" t="s">
+        <v>486</v>
+      </c>
+      <c r="D29" s="89" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="89" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30" s="89" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="B31" s="89" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="89" t="s">
+        <v>195</v>
+      </c>
+      <c r="B32" s="89" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="89" t="s">
+        <v>200</v>
+      </c>
+      <c r="B33" s="89" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="89" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="91" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="91" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="90" t="s">
+        <v>493</v>
+      </c>
+      <c r="C38" s="90"/>
+      <c r="D38" s="90"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="90"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="91" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="91" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="91" t="s">
+        <v>497</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="89" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="89" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="89" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="89" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="89" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="89" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="89" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="89" t="s">
+        <v>466</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>467</v>
+      </c>
+      <c r="C1" s="89" t="s">
+        <v>496</v>
+      </c>
+      <c r="D1" s="89" t="s">
+        <v>468</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>496</v>
+      </c>
+      <c r="F1" s="89" t="s">
+        <v>469</v>
+      </c>
+      <c r="G1" s="89" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="89" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" s="89" t="s">
+        <v>576</v>
+      </c>
+      <c r="G2" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="89" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="89" t="s">
+        <v>389</v>
+      </c>
+      <c r="B4" s="89" t="s">
+        <v>531</v>
+      </c>
+      <c r="D4" s="89" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="89" t="s">
+        <v>377</v>
+      </c>
+      <c r="B5" s="89" t="s">
+        <v>532</v>
+      </c>
+      <c r="D5" s="89" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="89" t="s">
+        <v>391</v>
+      </c>
+      <c r="B6" s="89" t="s">
+        <v>533</v>
+      </c>
+      <c r="D6" s="89" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="89" t="s">
+        <v>379</v>
+      </c>
+      <c r="B7" s="89" t="s">
+        <v>534</v>
+      </c>
+      <c r="D7" s="89" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="89" t="s">
+        <v>393</v>
+      </c>
+      <c r="B8" s="89" t="s">
+        <v>535</v>
+      </c>
+      <c r="D8" s="89" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="89" t="s">
+        <v>381</v>
+      </c>
+      <c r="B9" s="89" t="s">
+        <v>536</v>
+      </c>
+      <c r="D9" s="89" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="89" t="s">
+        <v>395</v>
+      </c>
+      <c r="B10" s="89" t="s">
+        <v>537</v>
+      </c>
+      <c r="D10" s="89" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="89" t="s">
+        <v>383</v>
+      </c>
+      <c r="B11" s="89" t="s">
+        <v>538</v>
+      </c>
+      <c r="D11" s="89" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="89" t="s">
+        <v>539</v>
+      </c>
+      <c r="D12" s="89" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="89" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="89" t="s">
+        <v>541</v>
+      </c>
+      <c r="D13" s="89" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="89" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="89" t="s">
+        <v>543</v>
+      </c>
+      <c r="D14" s="89" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="89" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="89" t="s">
+        <v>545</v>
+      </c>
+      <c r="D15" s="89" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="89" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="89" t="s">
+        <v>547</v>
+      </c>
+      <c r="D16" s="89" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="89" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="89" t="s">
+        <v>549</v>
+      </c>
+      <c r="D17" s="89" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="89" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="89" t="s">
+        <v>551</v>
+      </c>
+      <c r="D18" s="89" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="89" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="89" t="s">
+        <v>553</v>
+      </c>
+      <c r="D19" s="89" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="89" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="89" t="s">
+        <v>555</v>
+      </c>
+      <c r="D20" s="89" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="89" t="s">
+        <v>387</v>
+      </c>
+      <c r="B21" s="89" t="s">
+        <v>557</v>
+      </c>
+      <c r="D21" s="89" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="89" t="s">
+        <v>385</v>
+      </c>
+      <c r="B22" s="89" t="s">
+        <v>558</v>
+      </c>
+      <c r="D22" s="89" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="89" t="s">
+        <v>397</v>
+      </c>
+      <c r="B23" s="89" t="s">
+        <v>559</v>
+      </c>
+      <c r="D23" s="89" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="89" t="s">
+        <v>399</v>
+      </c>
+      <c r="B24" s="89" t="s">
+        <v>560</v>
+      </c>
+      <c r="D24" s="89" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="89" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="89" t="s">
+        <v>561</v>
+      </c>
+      <c r="D25" s="89" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="89" t="s">
+        <v>562</v>
+      </c>
+      <c r="D26" s="89" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="89" t="s">
+        <v>563</v>
+      </c>
+      <c r="D27" s="89" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="89" t="s">
+        <v>565</v>
+      </c>
+      <c r="D28" s="89" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="89" t="s">
+        <v>567</v>
+      </c>
+      <c r="D29" s="89" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="89" t="s">
+        <v>569</v>
+      </c>
+      <c r="D30" s="89" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="89" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" s="89" t="s">
+        <v>571</v>
+      </c>
+      <c r="D31" s="89" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="89" t="s">
+        <v>573</v>
+      </c>
+      <c r="D32" s="89" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="91" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="91" t="s">
+        <v>575</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="89" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="89" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="89" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="89" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="89" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="89" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="89" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="89" t="s">
+        <v>466</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>467</v>
+      </c>
+      <c r="C1" s="89" t="s">
+        <v>496</v>
+      </c>
+      <c r="D1" s="89" t="s">
+        <v>468</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>496</v>
+      </c>
+      <c r="F1" s="89" t="s">
+        <v>469</v>
+      </c>
+      <c r="G1" s="89" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="89" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>577</v>
+      </c>
+      <c r="D2" s="89" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="89" t="s">
+        <v>579</v>
+      </c>
+      <c r="D3" s="89" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="89" t="s">
+        <v>581</v>
+      </c>
+      <c r="D4" s="89" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="89" t="s">
+        <v>583</v>
+      </c>
+      <c r="D5" s="89" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="89" t="s">
+        <v>375</v>
+      </c>
+      <c r="B6" s="89" t="s">
+        <v>585</v>
+      </c>
+      <c r="D6" s="89" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="89" t="s">
+        <v>289</v>
+      </c>
+      <c r="B7" s="89" t="s">
+        <v>586</v>
+      </c>
+      <c r="D7" s="89" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="89" t="s">
+        <v>587</v>
+      </c>
+      <c r="D8" s="89" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="89" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="89" t="s">
+        <v>589</v>
+      </c>
+      <c r="D9" s="89" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="89" t="s">
+        <v>591</v>
+      </c>
+      <c r="D10" s="89" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="89" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="89" t="s">
+        <v>593</v>
+      </c>
+      <c r="D11" s="89" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="89" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="89" t="s">
+        <v>596</v>
+      </c>
+      <c r="B13" s="89" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="89" t="s">
+        <v>598</v>
+      </c>
+      <c r="B14" s="89" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="89" t="s">
+        <v>600</v>
+      </c>
+      <c r="B15" s="89" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="89" t="s">
+        <v>602</v>
+      </c>
+      <c r="B16" s="89" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="89" t="s">
+        <v>604</v>
+      </c>
+      <c r="B17" s="89" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="89" t="s">
+        <v>606</v>
+      </c>
+      <c r="B18" s="89" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="89" t="s">
+        <v>608</v>
+      </c>
+      <c r="B19" s="89" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="89" t="s">
+        <v>609</v>
+      </c>
+      <c r="B20" s="89" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="89" t="s">
+        <v>610</v>
+      </c>
+      <c r="B21" s="89" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="89" t="s">
+        <v>611</v>
+      </c>
+      <c r="B22" s="89" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="89" t="s">
+        <v>612</v>
+      </c>
+      <c r="B23" s="89" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="89" t="s">
+        <v>613</v>
+      </c>
+      <c r="B24" s="89" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="89" t="s">
+        <v>614</v>
+      </c>
+      <c r="B25" s="89" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="89" t="s">
+        <v>615</v>
+      </c>
+      <c r="B26" s="89" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="89" t="s">
+        <v>616</v>
+      </c>
+      <c r="B27" s="89" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="89" t="s">
+        <v>617</v>
+      </c>
+      <c r="B28" s="89" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="89" t="s">
+        <v>618</v>
+      </c>
+      <c r="B29" s="89" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="89" t="s">
+        <v>619</v>
+      </c>
+      <c r="B30" s="89" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="89" t="s">
+        <v>620</v>
+      </c>
+      <c r="B31" s="89" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="89" t="s">
+        <v>621</v>
+      </c>
+      <c r="B32" s="89" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="91" t="s">
+        <v>495</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>